--- a/data/trans_orig/P16A13-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16A13-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{17063AAF-3859-4C9E-8DE3-1C0734E761F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{07495379-7083-48AE-949C-DFA639997495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{79E746F1-98D8-4B2B-B21E-AAC6D7DFE9E6}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6534753F-A25B-4A68-9B05-62F53CEA4AB0}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -77,10 +77,10 @@
     <t>2,58%</t>
   </si>
   <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
   </si>
   <si>
     <t>2,79%</t>
@@ -89,16 +89,16 @@
     <t>1,21%</t>
   </si>
   <si>
-    <t>5,77%</t>
+    <t>5,39%</t>
   </si>
   <si>
     <t>2,68%</t>
   </si>
   <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,16 +107,16 @@
     <t>97,42%</t>
   </si>
   <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
   </si>
   <si>
     <t>97,21%</t>
   </si>
   <si>
-    <t>94,23%</t>
+    <t>94,61%</t>
   </si>
   <si>
     <t>98,79%</t>
@@ -125,10 +125,10 @@
     <t>97,32%</t>
   </si>
   <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>3,45%</t>
   </si>
   <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
   </si>
   <si>
     <t>3,75%</t>
   </si>
   <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
   </si>
   <si>
     <t>3,6%</t>
   </si>
   <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
   </si>
   <si>
     <t>96,55%</t>
   </si>
   <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
   </si>
   <si>
     <t>96,25%</t>
   </si>
   <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
   </si>
   <si>
     <t>96,4%</t>
   </si>
   <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -200,1528 +200,1528 @@
     <t>0,61%</t>
   </si>
   <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2012 (Tasa respuesta: 99,71%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>87,0%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
     <t>3,35%</t>
   </si>
   <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
   </si>
   <si>
     <t>96,65%</t>
   </si>
   <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>91,77%</t>
+  </si>
+  <si>
+    <t>87,9%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2023 (Tasa respuesta: 99,91%)</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>85,53%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>83,82%</t>
+  </si>
+  <si>
+    <t>80,71%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>86,33%</t>
+  </si>
+  <si>
+    <t>84,1%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>86,58%</t>
+  </si>
+  <si>
+    <t>82,28%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>79,19%</t>
+  </si>
+  <si>
+    <t>75,56%</t>
+  </si>
+  <si>
+    <t>82,38%</t>
+  </si>
+  <si>
+    <t>82,58%</t>
+  </si>
+  <si>
+    <t>79,79%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>85,82%</t>
+  </si>
+  <si>
+    <t>82,07%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
+  </si>
+  <si>
+    <t>81,03%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>84,97%</t>
+  </si>
+  <si>
+    <t>82,42%</t>
+  </si>
+  <si>
+    <t>87,02%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
   </si>
   <si>
     <t>4,17%</t>
   </si>
   <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
   </si>
   <si>
     <t>95,83%</t>
   </si>
   <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
   </si>
   <si>
     <t>7,32%</t>
   </si>
   <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
   </si>
   <si>
     <t>92,68%</t>
   </si>
   <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2012 (Tasa respuesta: 99,71%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>91,77%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>89,17%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>87,81%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2023 (Tasa respuesta: 99,91%)</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>85,53%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>83,82%</t>
-  </si>
-  <si>
-    <t>80,53%</t>
-  </si>
-  <si>
-    <t>86,77%</t>
-  </si>
-  <si>
-    <t>86,33%</t>
-  </si>
-  <si>
-    <t>83,89%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
     <t>92,64%</t>
   </si>
   <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>90,03%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>90,08%</t>
-  </si>
-  <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>75,54%</t>
-  </si>
-  <si>
-    <t>82,43%</t>
-  </si>
-  <si>
-    <t>79,76%</t>
-  </si>
-  <si>
-    <t>84,95%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>81,94%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
-  </si>
-  <si>
-    <t>80,48%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>84,97%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
-  </si>
-  <si>
-    <t>87,04%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
+    <t>93,19%</t>
   </si>
 </sst>
 </file>
@@ -2133,7 +2133,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E294A4E-07A1-499E-87EB-2075DA744EA8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27350EFB-840D-4AA4-AC7F-2D3C54BD9F72}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2600,10 +2600,10 @@
         <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2618,13 +2618,13 @@
         <v>313950</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>323</v>
@@ -2633,13 +2633,13 @@
         <v>323071</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>628</v>
@@ -2648,13 +2648,13 @@
         <v>637021</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2710,7 +2710,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2722,13 +2722,13 @@
         <v>7258</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>17</v>
@@ -2737,13 +2737,13 @@
         <v>15638</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>24</v>
@@ -2752,13 +2752,13 @@
         <v>22896</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2773,7 +2773,7 @@
         <v>351413</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>78</v>
@@ -2913,7 +2913,7 @@
         <v>94</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>40</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2928,13 +2928,13 @@
         <v>199544</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H17" s="7">
         <v>190</v>
@@ -2943,13 +2943,13 @@
         <v>199379</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M17" s="7">
         <v>392</v>
@@ -2958,13 +2958,13 @@
         <v>398923</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>48</v>
+        <v>103</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3020,7 +3020,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3032,13 +3032,13 @@
         <v>4988</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H19" s="7">
         <v>11</v>
@@ -3047,13 +3047,13 @@
         <v>11809</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M19" s="7">
         <v>16</v>
@@ -3062,13 +3062,13 @@
         <v>16797</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3083,13 +3083,13 @@
         <v>265823</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H20" s="7">
         <v>259</v>
@@ -3098,13 +3098,13 @@
         <v>266335</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M20" s="7">
         <v>520</v>
@@ -3113,13 +3113,13 @@
         <v>532158</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3175,7 +3175,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3187,13 +3187,13 @@
         <v>19284</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="H22" s="7">
         <v>32</v>
@@ -3202,13 +3202,13 @@
         <v>29617</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M22" s="7">
         <v>50</v>
@@ -3217,13 +3217,13 @@
         <v>48901</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3241,7 +3241,7 @@
         <v>83</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>132</v>
@@ -3345,10 +3345,10 @@
         <v>140</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H25" s="7">
         <v>16</v>
@@ -3357,13 +3357,13 @@
         <v>17617</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M25" s="7">
         <v>39</v>
@@ -3372,13 +3372,13 @@
         <v>39945</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3393,13 +3393,13 @@
         <v>720449</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H26" s="7">
         <v>729</v>
@@ -3426,10 +3426,10 @@
         <v>153</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3497,13 +3497,13 @@
         <v>86595</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="H28" s="7">
         <v>122</v>
@@ -3512,13 +3512,13 @@
         <v>121472</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="M28" s="7">
         <v>207</v>
@@ -3527,13 +3527,13 @@
         <v>208067</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3545,16 +3545,16 @@
         <v>3128</v>
       </c>
       <c r="D29" s="7">
-        <v>3188930</v>
+        <v>3188931</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="H29" s="7">
         <v>3175</v>
@@ -3563,25 +3563,25 @@
         <v>3257726</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M29" s="7">
         <v>6303</v>
       </c>
       <c r="N29" s="7">
-        <v>6446655</v>
+        <v>6446656</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>171</v>
@@ -3596,7 +3596,7 @@
         <v>3213</v>
       </c>
       <c r="D30" s="7">
-        <v>3275525</v>
+        <v>3275526</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -3626,7 +3626,7 @@
         <v>6510</v>
       </c>
       <c r="N30" s="7">
-        <v>6654722</v>
+        <v>6654723</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -3664,7 +3664,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B631783-5168-4108-B373-5E2F37E1C897}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9B8676C-3821-4AE6-9193-C38D189CABDB}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3931,7 +3931,7 @@
         <v>176</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>92</v>
+        <v>177</v>
       </c>
       <c r="H7" s="7">
         <v>29</v>
@@ -3940,13 +3940,13 @@
         <v>31596</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M7" s="7">
         <v>54</v>
@@ -3955,10 +3955,10 @@
         <v>58137</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>182</v>
@@ -3979,10 +3979,10 @@
         <v>183</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>99</v>
+        <v>184</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H8" s="7">
         <v>450</v>
@@ -3991,13 +3991,13 @@
         <v>491135</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M8" s="7">
         <v>897</v>
@@ -4006,13 +4006,13 @@
         <v>970121</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4223,7 +4223,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4238,10 +4238,10 @@
         <v>209</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>11</v>
+        <v>210</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>210</v>
+        <v>178</v>
       </c>
       <c r="H13" s="7">
         <v>47</v>
@@ -4271,7 +4271,7 @@
         <v>215</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>216</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4286,13 +4286,13 @@
         <v>637521</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H14" s="7">
         <v>574</v>
@@ -4301,13 +4301,13 @@
         <v>620035</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="M14" s="7">
         <v>1174</v>
@@ -4316,13 +4316,13 @@
         <v>1257556</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4390,13 +4390,13 @@
         <v>17006</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="H16" s="7">
         <v>14</v>
@@ -4405,13 +4405,13 @@
         <v>15446</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="M16" s="7">
         <v>30</v>
@@ -4420,13 +4420,13 @@
         <v>32453</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4441,13 +4441,13 @@
         <v>195612</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="H17" s="7">
         <v>198</v>
@@ -4533,7 +4533,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4578,10 +4578,10 @@
         <v>247</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>110</v>
+        <v>248</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>196</v>
+        <v>249</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4596,13 +4596,13 @@
         <v>259761</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H20" s="7">
         <v>257</v>
@@ -4611,13 +4611,13 @@
         <v>268295</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="M20" s="7">
         <v>505</v>
@@ -4626,13 +4626,13 @@
         <v>528056</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>204</v>
+        <v>257</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>119</v>
+        <v>258</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4688,7 +4688,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4700,13 +4700,13 @@
         <v>23394</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="H22" s="7">
         <v>31</v>
@@ -4715,13 +4715,13 @@
         <v>36313</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>259</v>
+        <v>162</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="M22" s="7">
         <v>52</v>
@@ -4730,13 +4730,13 @@
         <v>59707</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>262</v>
+        <v>156</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4751,13 +4751,13 @@
         <v>637121</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="H23" s="7">
         <v>605</v>
@@ -4766,13 +4766,13 @@
         <v>657540</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>269</v>
+        <v>170</v>
       </c>
       <c r="M23" s="7">
         <v>1201</v>
@@ -4781,13 +4781,13 @@
         <v>1294661</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>272</v>
+        <v>164</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4861,7 +4861,7 @@
         <v>273</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>194</v>
+        <v>274</v>
       </c>
       <c r="H25" s="7">
         <v>29</v>
@@ -4870,13 +4870,13 @@
         <v>33021</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>163</v>
+        <v>276</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="M25" s="7">
         <v>46</v>
@@ -4885,13 +4885,13 @@
         <v>53465</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>53</v>
+        <v>278</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>276</v>
+        <v>39</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4906,13 +4906,13 @@
         <v>755438</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>203</v>
+        <v>279</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="H26" s="7">
         <v>726</v>
@@ -4921,13 +4921,13 @@
         <v>788499</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>171</v>
+        <v>283</v>
       </c>
       <c r="M26" s="7">
         <v>1423</v>
@@ -4936,13 +4936,13 @@
         <v>1543937</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>60</v>
+        <v>284</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>282</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5010,13 +5010,13 @@
         <v>140263</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>40</v>
+        <v>287</v>
       </c>
       <c r="H28" s="7">
         <v>174</v>
@@ -5025,13 +5025,13 @@
         <v>190095</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>286</v>
+        <v>126</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="M28" s="7">
         <v>297</v>
@@ -5040,13 +5040,13 @@
         <v>330359</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>161</v>
+        <v>291</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5061,13 +5061,13 @@
         <v>3275561</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>48</v>
+        <v>294</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="H29" s="7">
         <v>3114</v>
@@ -5076,13 +5076,13 @@
         <v>3357015</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>293</v>
+        <v>133</v>
       </c>
       <c r="M29" s="7">
         <v>6191</v>
@@ -5091,13 +5091,13 @@
         <v>6632575</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>42</v>
+        <v>299</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>168</v>
+        <v>300</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5177,7 +5177,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B90A40D0-58D3-463C-AF37-2183FAABFC6B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93221A87-C5B0-4349-8C5F-9E2D32A89A84}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5194,7 +5194,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5304,10 +5304,10 @@
         <v>93</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="H4" s="7">
         <v>21</v>
@@ -5316,13 +5316,13 @@
         <v>23752</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>179</v>
+        <v>304</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>298</v>
+        <v>262</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="M4" s="7">
         <v>30</v>
@@ -5331,13 +5331,13 @@
         <v>32361</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>300</v>
+        <v>261</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5352,13 +5352,13 @@
         <v>285152</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="H5" s="7">
         <v>256</v>
@@ -5367,13 +5367,13 @@
         <v>264951</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>186</v>
+        <v>310</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>306</v>
+        <v>269</v>
       </c>
       <c r="M5" s="7">
         <v>513</v>
@@ -5382,13 +5382,13 @@
         <v>550103</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>307</v>
+        <v>267</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5456,13 +5456,13 @@
         <v>11148</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="H7" s="7">
         <v>8</v>
@@ -5471,13 +5471,13 @@
         <v>8574</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>313</v>
+        <v>273</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="M7" s="7">
         <v>19</v>
@@ -5486,13 +5486,13 @@
         <v>19722</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>316</v>
+        <v>125</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>317</v>
+        <v>15</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5507,13 +5507,13 @@
         <v>491427</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H8" s="7">
         <v>476</v>
@@ -5522,7 +5522,7 @@
         <v>514510</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>322</v>
+        <v>280</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>323</v>
@@ -5537,13 +5537,13 @@
         <v>1005937</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>326</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>327</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5611,13 +5611,13 @@
         <v>6039</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -5626,13 +5626,13 @@
         <v>6410</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>69</v>
+        <v>107</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="M10" s="7">
         <v>12</v>
@@ -5641,13 +5641,13 @@
         <v>12449</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5662,13 +5662,13 @@
         <v>312526</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="H11" s="7">
         <v>326</v>
@@ -5677,13 +5677,13 @@
         <v>329899</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>79</v>
+        <v>117</v>
       </c>
       <c r="M11" s="7">
         <v>655</v>
@@ -5692,13 +5692,13 @@
         <v>642425</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5754,7 +5754,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5766,13 +5766,13 @@
         <v>16739</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>340</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>342</v>
       </c>
       <c r="H13" s="7">
         <v>24</v>
@@ -5781,13 +5781,13 @@
         <v>29898</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>343</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>345</v>
       </c>
       <c r="M13" s="7">
         <v>40</v>
@@ -5796,13 +5796,13 @@
         <v>46637</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>346</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5817,13 +5817,13 @@
         <v>353225</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>349</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>351</v>
       </c>
       <c r="H14" s="7">
         <v>334</v>
@@ -5832,13 +5832,13 @@
         <v>357385</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>352</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>354</v>
       </c>
       <c r="M14" s="7">
         <v>672</v>
@@ -5847,13 +5847,13 @@
         <v>710610</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>355</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5921,13 +5921,13 @@
         <v>3033</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>360</v>
+        <v>209</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -5936,13 +5936,13 @@
         <v>7098</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="M16" s="7">
         <v>10</v>
@@ -5951,13 +5951,13 @@
         <v>10131</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5975,10 +5975,10 @@
         <v>364</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>365</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>366</v>
       </c>
       <c r="H17" s="7">
         <v>216</v>
@@ -5987,10 +5987,10 @@
         <v>211489</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>355</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>368</v>
@@ -6005,10 +6005,10 @@
         <v>369</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>217</v>
+        <v>370</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>321</v>
+        <v>371</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6064,7 +6064,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6076,13 +6076,13 @@
         <v>8310</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="H19" s="7">
         <v>6</v>
@@ -6091,13 +6091,13 @@
         <v>6520</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>375</v>
+        <v>224</v>
       </c>
       <c r="M19" s="7">
         <v>15</v>
@@ -6106,13 +6106,13 @@
         <v>14830</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6127,13 +6127,13 @@
         <v>254813</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H20" s="7">
         <v>257</v>
@@ -6142,10 +6142,10 @@
         <v>266595</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>383</v>
+        <v>234</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>384</v>
@@ -6219,7 +6219,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6231,13 +6231,13 @@
         <v>25394</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>388</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>390</v>
       </c>
       <c r="H22" s="7">
         <v>29</v>
@@ -6246,13 +6246,13 @@
         <v>34058</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>391</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>393</v>
       </c>
       <c r="M22" s="7">
         <v>51</v>
@@ -6261,13 +6261,13 @@
         <v>59452</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6282,13 +6282,13 @@
         <v>631164</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>396</v>
+        <v>78</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>398</v>
+        <v>49</v>
       </c>
       <c r="H23" s="7">
         <v>617</v>
@@ -6297,13 +6297,13 @@
         <v>657236</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="M23" s="7">
         <v>1175</v>
@@ -6312,13 +6312,13 @@
         <v>1288400</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6389,10 +6389,10 @@
         <v>57</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>404</v>
+        <v>91</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>405</v>
+        <v>291</v>
       </c>
       <c r="H25" s="7">
         <v>24</v>
@@ -6401,13 +6401,13 @@
         <v>27427</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>406</v>
+        <v>392</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>408</v>
+        <v>290</v>
       </c>
       <c r="M25" s="7">
         <v>41</v>
@@ -6416,13 +6416,13 @@
         <v>47925</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>242</v>
+        <v>158</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>331</v>
+        <v>402</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6437,13 +6437,13 @@
         <v>758085</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>410</v>
+        <v>300</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>411</v>
+        <v>101</v>
       </c>
       <c r="H26" s="7">
         <v>731</v>
@@ -6452,13 +6452,13 @@
         <v>798740</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>413</v>
+        <v>298</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="M26" s="7">
         <v>1464</v>
@@ -6467,13 +6467,13 @@
         <v>1556825</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>250</v>
+        <v>168</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>337</v>
+        <v>404</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6541,13 +6541,13 @@
         <v>99770</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>318</v>
+        <v>406</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>416</v>
+        <v>198</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>176</v>
+        <v>407</v>
       </c>
       <c r="H28" s="7">
         <v>125</v>
@@ -6556,13 +6556,13 @@
         <v>143737</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>417</v>
+        <v>59</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="M28" s="7">
         <v>218</v>
@@ -6571,13 +6571,13 @@
         <v>243507</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>392</v>
+        <v>410</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>420</v>
+        <v>130</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>90</v>
+        <v>411</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6592,13 +6592,13 @@
         <v>3294580</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>326</v>
+        <v>412</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>184</v>
+        <v>413</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>421</v>
+        <v>208</v>
       </c>
       <c r="H29" s="7">
         <v>3213</v>
@@ -6607,13 +6607,13 @@
         <v>3400805</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>422</v>
+        <v>67</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="M29" s="7">
         <v>6351</v>
@@ -6622,13 +6622,13 @@
         <v>6695385</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>401</v>
+        <v>416</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>98</v>
+        <v>417</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>425</v>
+        <v>138</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6708,7 +6708,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{637B9DB6-BEE6-486D-844B-AAE09BC7F88D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17965A95-2FB2-47E2-9CC8-D00DDAAABCAE}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6725,7 +6725,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6832,13 +6832,13 @@
         <v>15417</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="H4" s="7">
         <v>26</v>
@@ -6847,13 +6847,13 @@
         <v>13008</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="M4" s="7">
         <v>44</v>
@@ -6862,13 +6862,13 @@
         <v>28425</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>434</v>
+        <v>306</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>435</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6883,13 +6883,13 @@
         <v>244881</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="H5" s="7">
         <v>512</v>
@@ -6898,13 +6898,13 @@
         <v>258395</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="M5" s="7">
         <v>825</v>
@@ -6913,13 +6913,13 @@
         <v>503275</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>443</v>
+        <v>238</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>444</v>
+        <v>313</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6987,13 +6987,13 @@
         <v>13973</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>341</v>
+        <v>433</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>76</v>
+        <v>290</v>
       </c>
       <c r="H7" s="7">
         <v>24</v>
@@ -7002,13 +7002,13 @@
         <v>19143</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>447</v>
+        <v>400</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="M7" s="7">
         <v>35</v>
@@ -7017,13 +7017,13 @@
         <v>33116</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>409</v>
+        <v>155</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7038,13 +7038,13 @@
         <v>504254</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>351</v>
+        <v>438</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>84</v>
+        <v>298</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="H8" s="7">
         <v>691</v>
@@ -7053,13 +7053,13 @@
         <v>534073</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>452</v>
+        <v>403</v>
       </c>
       <c r="M8" s="7">
         <v>1061</v>
@@ -7068,13 +7068,13 @@
         <v>1038327</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>415</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7142,13 +7142,13 @@
         <v>34670</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="H10" s="7">
         <v>108</v>
@@ -7157,13 +7157,13 @@
         <v>60411</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="M10" s="7">
         <v>154</v>
@@ -7172,13 +7172,13 @@
         <v>95081</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7193,13 +7193,13 @@
         <v>287570</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="H11" s="7">
         <v>428</v>
@@ -7208,13 +7208,13 @@
         <v>312873</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="M11" s="7">
         <v>742</v>
@@ -7223,13 +7223,13 @@
         <v>600443</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7285,7 +7285,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -7297,13 +7297,13 @@
         <v>20517</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>329</v>
+        <v>462</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="H13" s="7">
         <v>83</v>
@@ -7312,13 +7312,13 @@
         <v>40918</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>475</v>
+        <v>464</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>226</v>
+        <v>466</v>
       </c>
       <c r="M13" s="7">
         <v>110</v>
@@ -7327,13 +7327,13 @@
         <v>61435</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7348,13 +7348,13 @@
         <v>301723</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>334</v>
+        <v>472</v>
       </c>
       <c r="H14" s="7">
         <v>516</v>
@@ -7363,13 +7363,13 @@
         <v>387638</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>234</v>
+        <v>474</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="M14" s="7">
         <v>781</v>
@@ -7378,13 +7378,13 @@
         <v>689361</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7452,13 +7452,13 @@
         <v>26409</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="H16" s="7">
         <v>120</v>
@@ -7467,13 +7467,13 @@
         <v>48265</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="M16" s="7">
         <v>164</v>
@@ -7482,13 +7482,13 @@
         <v>74674</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7503,13 +7503,13 @@
         <v>170339</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="H17" s="7">
         <v>372</v>
@@ -7518,13 +7518,13 @@
         <v>183638</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="M17" s="7">
         <v>607</v>
@@ -7533,13 +7533,13 @@
         <v>353977</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>496</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7595,7 +7595,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7607,13 +7607,13 @@
         <v>39302</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="H19" s="7">
         <v>100</v>
@@ -7622,13 +7622,13 @@
         <v>43789</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="M19" s="7">
         <v>172</v>
@@ -7637,13 +7637,13 @@
         <v>83091</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7658,13 +7658,13 @@
         <v>237921</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="H20" s="7">
         <v>360</v>
@@ -7673,13 +7673,13 @@
         <v>231833</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="M20" s="7">
         <v>659</v>
@@ -7688,13 +7688,13 @@
         <v>469754</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7750,7 +7750,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7762,13 +7762,13 @@
         <v>37560</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>181</v>
+        <v>264</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="H22" s="7">
         <v>97</v>
@@ -7777,13 +7777,13 @@
         <v>60043</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>286</v>
+        <v>518</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="M22" s="7">
         <v>139</v>
@@ -7792,13 +7792,13 @@
         <v>97603</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>526</v>
+        <v>131</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7813,13 +7813,13 @@
         <v>590194</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>190</v>
+        <v>271</v>
       </c>
       <c r="H23" s="7">
         <v>863</v>
@@ -7828,13 +7828,13 @@
         <v>744160</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>293</v>
+        <v>525</v>
       </c>
       <c r="M23" s="7">
         <v>1420</v>
@@ -7843,13 +7843,13 @@
         <v>1334354</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>533</v>
+        <v>522</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>534</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7917,13 +7917,13 @@
         <v>29260</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>284</v>
+        <v>527</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="H25" s="7">
         <v>39</v>
@@ -7932,13 +7932,13 @@
         <v>26115</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>160</v>
+        <v>530</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="M25" s="7">
         <v>72</v>
@@ -7947,13 +7947,13 @@
         <v>55375</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>276</v>
+        <v>534</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7968,13 +7968,13 @@
         <v>830168</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>290</v>
+        <v>536</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="H26" s="7">
         <v>1021</v>
@@ -7983,13 +7983,13 @@
         <v>838916</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>169</v>
+        <v>539</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="M26" s="7">
         <v>1750</v>
@@ -7998,13 +7998,13 @@
         <v>1669084</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>282</v>
+        <v>544</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8072,13 +8072,13 @@
         <v>217109</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>546</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>547</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>548</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="H28" s="7">
         <v>597</v>
@@ -8087,13 +8087,13 @@
         <v>311693</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>549</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>550</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>551</v>
       </c>
       <c r="M28" s="7">
         <v>890</v>
@@ -8102,13 +8102,13 @@
         <v>528802</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>476</v>
+        <v>551</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>552</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>553</v>
+        <v>177</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8123,10 +8123,10 @@
         <v>3167049</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>553</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>554</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>555</v>
@@ -8150,13 +8150,13 @@
         <v>7845</v>
       </c>
       <c r="N29" s="7">
-        <v>6658573</v>
+        <v>6658574</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>483</v>
+        <v>559</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>559</v>
+        <v>184</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>560</v>
@@ -8201,7 +8201,7 @@
         <v>8735</v>
       </c>
       <c r="N30" s="7">
-        <v>7187375</v>
+        <v>7187376</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P16A13-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16A13-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{07495379-7083-48AE-949C-DFA639997495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1257261-4129-4FE8-99A1-800FE907096A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6534753F-A25B-4A68-9B05-62F53CEA4AB0}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{99291DC1-81FA-487C-A587-C53A306B2E73}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="553">
   <si>
     <t>Población que ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -77,1648 +77,1624 @@
     <t>2,58%</t>
   </si>
   <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
   </si>
   <si>
     <t>2,79%</t>
   </si>
   <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
   </si>
   <si>
     <t>2,68%</t>
   </si>
   <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2012 (Tasa respuesta: 99,71%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>88,64%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>91,77%</t>
+  </si>
+  <si>
+    <t>87,8%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
     <t>1,42%</t>
   </si>
   <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
   </si>
   <si>
     <t>98,58%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
   </si>
   <si>
     <t>4,06%</t>
   </si>
   <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
   </si>
   <si>
     <t>95,94%</t>
   </si>
   <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2023 (Tasa respuesta: 99,91%)</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>85,53%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>83,82%</t>
+  </si>
+  <si>
+    <t>80,71%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>86,33%</t>
+  </si>
+  <si>
+    <t>84,1%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>86,58%</t>
+  </si>
+  <si>
+    <t>82,28%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>79,19%</t>
+  </si>
+  <si>
+    <t>75,56%</t>
+  </si>
+  <si>
+    <t>82,38%</t>
+  </si>
+  <si>
+    <t>82,58%</t>
+  </si>
+  <si>
+    <t>79,79%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>85,82%</t>
+  </si>
+  <si>
+    <t>82,07%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
+  </si>
+  <si>
+    <t>81,03%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>84,97%</t>
+  </si>
+  <si>
+    <t>82,42%</t>
+  </si>
+  <si>
+    <t>87,02%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
   </si>
   <si>
     <t>5,1%</t>
   </si>
   <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
   </si>
   <si>
     <t>94,9%</t>
   </si>
   <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2012 (Tasa respuesta: 99,71%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
   </si>
   <si>
     <t>7,88%</t>
   </si>
   <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
   </si>
   <si>
     <t>92,12%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>87,0%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>91,77%</t>
-  </si>
-  <si>
-    <t>87,9%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2023 (Tasa respuesta: 99,91%)</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>85,53%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>83,82%</t>
-  </si>
-  <si>
-    <t>80,71%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
-  </si>
-  <si>
-    <t>86,33%</t>
-  </si>
-  <si>
-    <t>84,1%</t>
-  </si>
-  <si>
-    <t>88,43%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
-  </si>
-  <si>
-    <t>82,28%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>75,56%</t>
-  </si>
-  <si>
-    <t>82,38%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>79,79%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>82,07%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
-  </si>
-  <si>
-    <t>81,03%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>84,97%</t>
-  </si>
-  <si>
-    <t>82,42%</t>
-  </si>
-  <si>
-    <t>87,02%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
   </si>
   <si>
     <t>93,19%</t>
@@ -2133,7 +2109,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27350EFB-840D-4AA4-AC7F-2D3C54BD9F72}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E68A5CA5-619E-4195-87B7-6A728A8AB2C6}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2722,13 +2698,13 @@
         <v>7258</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>17</v>
@@ -2737,13 +2713,13 @@
         <v>15638</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>24</v>
@@ -2752,13 +2728,13 @@
         <v>22896</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2773,13 +2749,13 @@
         <v>351413</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>367</v>
@@ -2788,13 +2764,13 @@
         <v>355818</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>722</v>
@@ -2803,13 +2779,13 @@
         <v>707231</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2865,7 +2841,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2877,13 +2853,13 @@
         <v>3764</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -2892,13 +2868,13 @@
         <v>8289</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>12</v>
@@ -2907,13 +2883,13 @@
         <v>12053</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2928,13 +2904,13 @@
         <v>199544</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>190</v>
@@ -2943,13 +2919,13 @@
         <v>199379</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>392</v>
@@ -2958,13 +2934,13 @@
         <v>398923</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3020,7 +2996,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3032,13 +3008,13 @@
         <v>4988</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>11</v>
@@ -3047,13 +3023,13 @@
         <v>11809</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>16</v>
@@ -3062,13 +3038,13 @@
         <v>16797</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3083,13 +3059,13 @@
         <v>265823</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>259</v>
@@ -3098,13 +3074,13 @@
         <v>266335</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>520</v>
@@ -3113,13 +3089,13 @@
         <v>532158</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3175,7 +3151,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3187,13 +3163,13 @@
         <v>19284</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="H22" s="7">
         <v>32</v>
@@ -3202,13 +3178,13 @@
         <v>29617</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="M22" s="7">
         <v>50</v>
@@ -3217,13 +3193,13 @@
         <v>48901</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3238,13 +3214,13 @@
         <v>595743</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>103</v>
+        <v>134</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="H23" s="7">
         <v>589</v>
@@ -3253,13 +3229,13 @@
         <v>608602</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="M23" s="7">
         <v>1169</v>
@@ -3268,13 +3244,13 @@
         <v>1204345</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3330,7 +3306,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3342,13 +3318,13 @@
         <v>22328</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>141</v>
+        <v>77</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H25" s="7">
         <v>16</v>
@@ -3357,13 +3333,13 @@
         <v>17617</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M25" s="7">
         <v>39</v>
@@ -3372,13 +3348,13 @@
         <v>39945</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3393,13 +3369,13 @@
         <v>720449</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>149</v>
+        <v>87</v>
       </c>
       <c r="H26" s="7">
         <v>729</v>
@@ -3408,13 +3384,13 @@
         <v>765894</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="M26" s="7">
         <v>1441</v>
@@ -3423,13 +3399,13 @@
         <v>1486343</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3497,13 +3473,13 @@
         <v>86595</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="H28" s="7">
         <v>122</v>
@@ -3512,13 +3488,13 @@
         <v>121472</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="M28" s="7">
         <v>207</v>
@@ -3527,13 +3503,13 @@
         <v>208067</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3545,16 +3521,16 @@
         <v>3128</v>
       </c>
       <c r="D29" s="7">
-        <v>3188931</v>
+        <v>3188930</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="H29" s="7">
         <v>3175</v>
@@ -3563,13 +3539,13 @@
         <v>3257726</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="M29" s="7">
         <v>6303</v>
@@ -3578,13 +3554,13 @@
         <v>6446656</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3596,7 +3572,7 @@
         <v>3213</v>
       </c>
       <c r="D30" s="7">
-        <v>3275526</v>
+        <v>3275525</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -3640,7 +3616,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -3664,7 +3640,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9B8676C-3821-4AE6-9193-C38D189CABDB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{411DA880-CF92-465F-BFED-021C65DB0342}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3681,7 +3657,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3786,39 +3762,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3831,39 +3807,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3876,39 +3852,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3925,13 +3901,13 @@
         <v>26541</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="H7" s="7">
         <v>29</v>
@@ -3940,13 +3916,13 @@
         <v>31596</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="M7" s="7">
         <v>54</v>
@@ -3955,13 +3931,13 @@
         <v>58137</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>159</v>
+        <v>59</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3976,13 +3952,13 @@
         <v>478986</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="H8" s="7">
         <v>450</v>
@@ -3991,13 +3967,13 @@
         <v>491135</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="M8" s="7">
         <v>897</v>
@@ -4006,13 +3982,13 @@
         <v>970121</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>167</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4080,13 +4056,13 @@
         <v>11994</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>192</v>
+        <v>89</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H10" s="7">
         <v>13</v>
@@ -4095,13 +4071,13 @@
         <v>13654</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M10" s="7">
         <v>22</v>
@@ -4110,13 +4086,13 @@
         <v>25649</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4131,13 +4107,13 @@
         <v>311122</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>202</v>
+        <v>98</v>
       </c>
       <c r="H11" s="7">
         <v>304</v>
@@ -4238,10 +4214,10 @@
         <v>209</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="H13" s="7">
         <v>47</v>
@@ -4271,7 +4247,7 @@
         <v>215</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>182</v>
+        <v>216</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4286,13 +4262,13 @@
         <v>637521</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>186</v>
+        <v>218</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>217</v>
+        <v>49</v>
       </c>
       <c r="H14" s="7">
         <v>574</v>
@@ -4301,13 +4277,13 @@
         <v>620035</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M14" s="7">
         <v>1174</v>
@@ -4316,13 +4292,13 @@
         <v>1257556</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>190</v>
+        <v>223</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4378,7 +4354,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4390,13 +4366,13 @@
         <v>17006</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H16" s="7">
         <v>14</v>
@@ -4405,13 +4381,13 @@
         <v>15446</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="M16" s="7">
         <v>30</v>
@@ -4420,13 +4396,13 @@
         <v>32453</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4441,13 +4417,13 @@
         <v>195612</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="H17" s="7">
         <v>198</v>
@@ -4456,13 +4432,13 @@
         <v>204145</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="M17" s="7">
         <v>378</v>
@@ -4471,13 +4447,13 @@
         <v>399756</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4533,7 +4509,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4545,13 +4521,13 @@
         <v>14220</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>242</v>
+        <v>133</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H19" s="7">
         <v>11</v>
@@ -4560,13 +4536,13 @@
         <v>10845</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M19" s="7">
         <v>24</v>
@@ -4575,7 +4551,7 @@
         <v>25065</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>247</v>
+        <v>226</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>248</v>
@@ -4602,7 +4578,7 @@
         <v>251</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>252</v>
+        <v>140</v>
       </c>
       <c r="H20" s="7">
         <v>257</v>
@@ -4611,13 +4587,13 @@
         <v>268295</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="M20" s="7">
         <v>505</v>
@@ -4626,13 +4602,13 @@
         <v>528056</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4688,7 +4664,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4700,13 +4676,13 @@
         <v>23394</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>261</v>
       </c>
       <c r="H22" s="7">
         <v>31</v>
@@ -4715,13 +4691,13 @@
         <v>36313</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="M22" s="7">
         <v>52</v>
@@ -4730,10 +4706,10 @@
         <v>59707</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>265</v>
@@ -4772,7 +4748,7 @@
         <v>270</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>170</v>
+        <v>271</v>
       </c>
       <c r="M23" s="7">
         <v>1201</v>
@@ -4781,13 +4757,13 @@
         <v>1294661</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>164</v>
+        <v>274</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4843,7 +4819,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4858,10 +4834,10 @@
         <v>57</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="H25" s="7">
         <v>29</v>
@@ -4870,13 +4846,13 @@
         <v>33021</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="M25" s="7">
         <v>46</v>
@@ -4885,13 +4861,13 @@
         <v>53465</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>39</v>
+        <v>281</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4909,10 +4885,10 @@
         <v>66</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="H26" s="7">
         <v>726</v>
@@ -4921,13 +4897,13 @@
         <v>788499</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="M26" s="7">
         <v>1423</v>
@@ -4936,13 +4912,13 @@
         <v>1543937</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>49</v>
+        <v>290</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5010,13 +4986,13 @@
         <v>140263</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="H28" s="7">
         <v>174</v>
@@ -5025,13 +5001,13 @@
         <v>190095</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>126</v>
+        <v>295</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="M28" s="7">
         <v>297</v>
@@ -5040,13 +5016,13 @@
         <v>330359</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5061,13 +5037,13 @@
         <v>3275561</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="H29" s="7">
         <v>3114</v>
@@ -5076,13 +5052,13 @@
         <v>3357015</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>133</v>
+        <v>305</v>
       </c>
       <c r="M29" s="7">
         <v>6191</v>
@@ -5091,13 +5067,13 @@
         <v>6632575</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5153,7 +5129,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -5177,7 +5153,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93221A87-C5B0-4349-8C5F-9E2D32A89A84}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF9E8169-8697-437D-A1FD-67081E5848E5}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5194,7 +5170,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5301,13 +5277,13 @@
         <v>8609</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="H4" s="7">
         <v>21</v>
@@ -5316,13 +5292,13 @@
         <v>23752</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="M4" s="7">
         <v>30</v>
@@ -5331,13 +5307,13 @@
         <v>32361</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>261</v>
+        <v>314</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5352,13 +5328,13 @@
         <v>285152</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="H5" s="7">
         <v>256</v>
@@ -5367,10 +5343,10 @@
         <v>264951</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>269</v>
@@ -5382,13 +5358,13 @@
         <v>550103</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>267</v>
+        <v>321</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5456,13 +5432,13 @@
         <v>11148</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>316</v>
+        <v>35</v>
       </c>
       <c r="H7" s="7">
         <v>8</v>
@@ -5471,13 +5447,13 @@
         <v>8574</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="M7" s="7">
         <v>19</v>
@@ -5486,13 +5462,13 @@
         <v>19722</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>15</v>
+        <v>328</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5507,13 +5483,13 @@
         <v>491427</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>321</v>
+        <v>44</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="H8" s="7">
         <v>476</v>
@@ -5522,13 +5498,13 @@
         <v>514510</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="M8" s="7">
         <v>940</v>
@@ -5537,13 +5513,13 @@
         <v>1005937</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>26</v>
+        <v>335</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5611,13 +5587,13 @@
         <v>6039</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>141</v>
+        <v>55</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -5626,13 +5602,13 @@
         <v>6410</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>107</v>
+        <v>339</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="M10" s="7">
         <v>12</v>
@@ -5641,13 +5617,13 @@
         <v>12449</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>141</v>
+        <v>55</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5662,13 +5638,13 @@
         <v>312526</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>149</v>
+        <v>65</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="H11" s="7">
         <v>326</v>
@@ -5677,13 +5653,13 @@
         <v>329899</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>117</v>
+        <v>345</v>
       </c>
       <c r="M11" s="7">
         <v>655</v>
@@ -5692,13 +5668,13 @@
         <v>642425</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>149</v>
+        <v>65</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5766,13 +5742,13 @@
         <v>16739</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>340</v>
+        <v>211</v>
       </c>
       <c r="H13" s="7">
         <v>24</v>
@@ -5781,13 +5757,13 @@
         <v>29898</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>342</v>
+        <v>297</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="M13" s="7">
         <v>40</v>
@@ -5796,13 +5772,13 @@
         <v>46637</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>344</v>
+        <v>296</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5817,13 +5793,13 @@
         <v>353225</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>348</v>
+        <v>219</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="H14" s="7">
         <v>334</v>
@@ -5832,13 +5808,13 @@
         <v>357385</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>352</v>
+        <v>306</v>
       </c>
       <c r="M14" s="7">
         <v>672</v>
@@ -5847,13 +5823,13 @@
         <v>710610</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>353</v>
+        <v>304</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5909,7 +5885,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5921,13 +5897,13 @@
         <v>3033</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>209</v>
+        <v>362</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -5936,13 +5912,13 @@
         <v>7098</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>358</v>
+        <v>160</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="M16" s="7">
         <v>10</v>
@@ -5951,13 +5927,13 @@
         <v>10131</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>362</v>
+        <v>15</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5972,13 +5948,13 @@
         <v>208188</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>216</v>
+        <v>368</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="H17" s="7">
         <v>216</v>
@@ -5987,13 +5963,13 @@
         <v>211489</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>366</v>
+        <v>168</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="M17" s="7">
         <v>425</v>
@@ -6002,13 +5978,13 @@
         <v>419677</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>371</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6064,7 +6040,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6076,13 +6052,13 @@
         <v>8310</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>372</v>
+        <v>327</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H19" s="7">
         <v>6</v>
@@ -6091,13 +6067,13 @@
         <v>6520</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>224</v>
+        <v>378</v>
       </c>
       <c r="M19" s="7">
         <v>15</v>
@@ -6106,13 +6082,13 @@
         <v>14830</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>378</v>
+        <v>275</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6127,7 +6103,7 @@
         <v>254813</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>380</v>
+        <v>332</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>381</v>
@@ -6145,10 +6121,10 @@
         <v>383</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>234</v>
+        <v>384</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M20" s="7">
         <v>507</v>
@@ -6157,13 +6133,13 @@
         <v>521408</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>387</v>
+        <v>284</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6219,7 +6195,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6231,13 +6207,13 @@
         <v>25394</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>71</v>
+        <v>388</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>39</v>
+        <v>389</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="H22" s="7">
         <v>29</v>
@@ -6246,10 +6222,10 @@
         <v>34058</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>390</v>
+        <v>292</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>391</v>
@@ -6261,7 +6237,7 @@
         <v>59452</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>392</v>
@@ -6282,13 +6258,13 @@
         <v>631164</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>78</v>
+        <v>394</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>49</v>
+        <v>396</v>
       </c>
       <c r="H23" s="7">
         <v>617</v>
@@ -6297,13 +6273,13 @@
         <v>657236</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>397</v>
+        <v>302</v>
       </c>
       <c r="M23" s="7">
         <v>1175</v>
@@ -6312,7 +6288,7 @@
         <v>1288400</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>398</v>
@@ -6374,7 +6350,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6389,10 +6365,10 @@
         <v>57</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>91</v>
+        <v>400</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>291</v>
+        <v>401</v>
       </c>
       <c r="H25" s="7">
         <v>24</v>
@@ -6401,13 +6377,13 @@
         <v>27427</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>400</v>
+        <v>324</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>290</v>
+        <v>403</v>
       </c>
       <c r="M25" s="7">
         <v>41</v>
@@ -6416,13 +6392,13 @@
         <v>47925</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>158</v>
+        <v>404</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>402</v>
+        <v>362</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6440,10 +6416,10 @@
         <v>66</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>300</v>
+        <v>406</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>101</v>
+        <v>407</v>
       </c>
       <c r="H26" s="7">
         <v>731</v>
@@ -6452,13 +6428,13 @@
         <v>798740</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>298</v>
+        <v>409</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>403</v>
+        <v>330</v>
       </c>
       <c r="M26" s="7">
         <v>1464</v>
@@ -6467,13 +6443,13 @@
         <v>1556825</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>168</v>
+        <v>410</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>404</v>
+        <v>368</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6541,13 +6517,13 @@
         <v>99770</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>198</v>
+        <v>389</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="H28" s="7">
         <v>125</v>
@@ -6556,13 +6532,13 @@
         <v>143737</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>59</v>
+        <v>414</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>409</v>
+        <v>128</v>
       </c>
       <c r="M28" s="7">
         <v>218</v>
@@ -6571,13 +6547,13 @@
         <v>243507</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>130</v>
+        <v>417</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>411</v>
+        <v>209</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6592,13 +6568,13 @@
         <v>3294580</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>208</v>
+        <v>396</v>
       </c>
       <c r="H29" s="7">
         <v>3213</v>
@@ -6607,13 +6583,13 @@
         <v>3400805</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>67</v>
+        <v>420</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>414</v>
+        <v>134</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="M29" s="7">
         <v>6351</v>
@@ -6622,13 +6598,13 @@
         <v>6695385</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>417</v>
+        <v>217</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>138</v>
+        <v>423</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6684,7 +6660,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -6708,7 +6684,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17965A95-2FB2-47E2-9CC8-D00DDAAABCAE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{848227DF-17CD-4D09-A6AB-B853F6E370C0}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6725,7 +6701,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6832,13 +6808,13 @@
         <v>15417</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>420</v>
+        <v>149</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="H4" s="7">
         <v>26</v>
@@ -6847,13 +6823,13 @@
         <v>13008</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="M4" s="7">
         <v>44</v>
@@ -6862,13 +6838,13 @@
         <v>28425</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>306</v>
+        <v>430</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6883,13 +6859,13 @@
         <v>244881</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>428</v>
+        <v>156</v>
       </c>
       <c r="H5" s="7">
         <v>512</v>
@@ -6898,13 +6874,13 @@
         <v>258395</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="M5" s="7">
         <v>825</v>
@@ -6913,13 +6889,13 @@
         <v>503275</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>313</v>
+        <v>436</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6987,13 +6963,13 @@
         <v>13973</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>434</v>
+        <v>400</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="H7" s="7">
         <v>24</v>
@@ -7002,13 +6978,13 @@
         <v>19143</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>400</v>
+        <v>258</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="M7" s="7">
         <v>35</v>
@@ -7017,13 +6993,13 @@
         <v>33116</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>155</v>
+        <v>440</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7038,13 +7014,13 @@
         <v>504254</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>439</v>
+        <v>407</v>
       </c>
       <c r="H8" s="7">
         <v>691</v>
@@ -7053,13 +7029,13 @@
         <v>534073</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>250</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>403</v>
+        <v>268</v>
       </c>
       <c r="M8" s="7">
         <v>1061</v>
@@ -7068,13 +7044,13 @@
         <v>1038327</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>165</v>
+        <v>446</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7142,13 +7118,13 @@
         <v>34670</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="H10" s="7">
         <v>108</v>
@@ -7157,13 +7133,13 @@
         <v>60411</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="M10" s="7">
         <v>154</v>
@@ -7172,13 +7148,13 @@
         <v>95081</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7193,13 +7169,13 @@
         <v>287570</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="H11" s="7">
         <v>428</v>
@@ -7208,13 +7184,13 @@
         <v>312873</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="M11" s="7">
         <v>742</v>
@@ -7223,13 +7199,13 @@
         <v>600443</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7297,13 +7273,13 @@
         <v>20517</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>461</v>
+        <v>131</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>462</v>
+        <v>401</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="H13" s="7">
         <v>83</v>
@@ -7312,13 +7288,13 @@
         <v>40918</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="M13" s="7">
         <v>110</v>
@@ -7327,13 +7303,13 @@
         <v>61435</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7348,13 +7324,13 @@
         <v>301723</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>470</v>
+        <v>137</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>472</v>
+        <v>406</v>
       </c>
       <c r="H14" s="7">
         <v>516</v>
@@ -7440,7 +7416,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7595,7 +7571,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7750,7 +7726,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7765,10 +7741,10 @@
         <v>515</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>516</v>
+        <v>94</v>
       </c>
       <c r="H22" s="7">
         <v>97</v>
@@ -7777,13 +7753,13 @@
         <v>60043</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>517</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>518</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>519</v>
       </c>
       <c r="M22" s="7">
         <v>139</v>
@@ -7792,13 +7768,13 @@
         <v>97603</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>131</v>
+        <v>519</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>516</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7813,13 +7789,13 @@
         <v>590194</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>522</v>
+        <v>102</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H23" s="7">
         <v>863</v>
@@ -7828,13 +7804,13 @@
         <v>744160</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>525</v>
+        <v>99</v>
       </c>
       <c r="M23" s="7">
         <v>1420</v>
@@ -7843,13 +7819,13 @@
         <v>1334354</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>522</v>
+        <v>102</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>137</v>
+        <v>524</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7905,7 +7881,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -7917,13 +7893,13 @@
         <v>29260</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>527</v>
+        <v>53</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>529</v>
+        <v>40</v>
       </c>
       <c r="H25" s="7">
         <v>39</v>
@@ -7932,13 +7908,13 @@
         <v>26115</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>531</v>
+        <v>159</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="M25" s="7">
         <v>72</v>
@@ -7947,13 +7923,13 @@
         <v>55375</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7968,13 +7944,13 @@
         <v>830168</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>536</v>
+        <v>61</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>537</v>
+        <v>48</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="H26" s="7">
         <v>1021</v>
@@ -7983,13 +7959,13 @@
         <v>838916</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>541</v>
+        <v>169</v>
       </c>
       <c r="M26" s="7">
         <v>1750</v>
@@ -7998,13 +7974,13 @@
         <v>1669084</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8072,13 +8048,13 @@
         <v>217109</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="H28" s="7">
         <v>597</v>
@@ -8087,13 +8063,13 @@
         <v>311693</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>549</v>
+        <v>262</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="M28" s="7">
         <v>890</v>
@@ -8102,13 +8078,13 @@
         <v>528802</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>177</v>
+        <v>544</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8123,13 +8099,13 @@
         <v>3167049</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="H29" s="7">
         <v>4763</v>
@@ -8138,13 +8114,13 @@
         <v>3491525</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>558</v>
+        <v>270</v>
       </c>
       <c r="M29" s="7">
         <v>7845</v>
@@ -8153,13 +8129,13 @@
         <v>6658574</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>559</v>
+        <v>550</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>184</v>
+        <v>551</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8215,7 +8191,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A13-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16A13-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1257261-4129-4FE8-99A1-800FE907096A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE09A59E-BDD7-413B-9BD7-3DE9D74C361B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{99291DC1-81FA-487C-A587-C53A306B2E73}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{ED09FC8C-161B-4E78-A0DC-566BDC2EAED9}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="561">
   <si>
     <t>Población que ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -71,34 +71,34 @@
     <t>Almeria</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>2,58%</t>
   </si>
   <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
   </si>
   <si>
     <t>2,79%</t>
   </si>
   <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
   </si>
   <si>
     <t>2,68%</t>
   </si>
   <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>97,42%</t>
   </si>
   <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
   </si>
   <si>
     <t>97,21%</t>
   </si>
   <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
   </si>
   <si>
     <t>97,32%</t>
   </si>
   <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,1564 +140,1588 @@
     <t>3,45%</t>
   </si>
   <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
   </si>
   <si>
     <t>3,75%</t>
   </si>
   <si>
-    <t>2,37%</t>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2012 (Tasa respuesta: 99,71%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>91,77%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>89,17%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,55%</t>
   </si>
   <si>
     <t>5,73%</t>
   </si>
   <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
   </si>
   <si>
     <t>94,27%</t>
   </si>
   <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
     <t>98,45%</t>
   </si>
   <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
+    <t>87,81%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
   </si>
   <si>
     <t>5,03%</t>
   </si>
   <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
   </si>
   <si>
     <t>94,97%</t>
   </si>
   <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2023 (Tasa respuesta: 99,91%)</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>85,53%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>83,82%</t>
+  </si>
+  <si>
+    <t>80,53%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>86,33%</t>
+  </si>
+  <si>
+    <t>83,89%</t>
+  </si>
+  <si>
+    <t>88,31%</t>
   </si>
   <si>
     <t>6,37%</t>
   </si>
   <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
   </si>
   <si>
     <t>93,63%</t>
   </si>
   <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2012 (Tasa respuesta: 99,71%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>90,03%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>86,58%</t>
+  </si>
+  <si>
+    <t>82,58%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>79,19%</t>
+  </si>
+  <si>
+    <t>75,54%</t>
+  </si>
+  <si>
+    <t>82,43%</t>
+  </si>
+  <si>
+    <t>79,76%</t>
+  </si>
+  <si>
+    <t>84,95%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>85,82%</t>
+  </si>
+  <si>
+    <t>81,94%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
+  </si>
+  <si>
+    <t>80,48%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>84,97%</t>
+  </si>
+  <si>
+    <t>82,54%</t>
+  </si>
+  <si>
+    <t>87,04%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
   </si>
   <si>
     <t>7,2%</t>
   </si>
   <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
   </si>
   <si>
     <t>92,8%</t>
   </si>
   <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>91,77%</t>
-  </si>
-  <si>
-    <t>87,8%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2023 (Tasa respuesta: 99,91%)</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>85,53%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>83,82%</t>
-  </si>
-  <si>
-    <t>80,71%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
-  </si>
-  <si>
-    <t>86,33%</t>
-  </si>
-  <si>
-    <t>84,1%</t>
-  </si>
-  <si>
-    <t>88,43%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
-  </si>
-  <si>
-    <t>82,28%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>75,56%</t>
-  </si>
-  <si>
-    <t>82,38%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>79,79%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>82,07%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
-  </si>
-  <si>
-    <t>81,03%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>84,97%</t>
-  </si>
-  <si>
-    <t>82,42%</t>
-  </si>
-  <si>
-    <t>87,02%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
   </si>
 </sst>
 </file>
@@ -2109,7 +2133,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E68A5CA5-619E-4195-87B7-6A728A8AB2C6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1898E90-9CF4-44A1-9FEF-D78BEA22DCB1}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2576,10 +2600,10 @@
         <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2594,13 +2618,13 @@
         <v>313950</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>323</v>
@@ -2609,13 +2633,13 @@
         <v>323071</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>628</v>
@@ -2624,13 +2648,13 @@
         <v>637021</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2686,7 +2710,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2698,13 +2722,13 @@
         <v>7258</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>17</v>
@@ -2713,13 +2737,13 @@
         <v>15638</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>24</v>
@@ -2728,13 +2752,13 @@
         <v>22896</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2749,13 +2773,13 @@
         <v>351413</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>367</v>
@@ -2764,13 +2788,13 @@
         <v>355818</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>722</v>
@@ -2779,13 +2803,13 @@
         <v>707231</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2841,7 +2865,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2853,13 +2877,13 @@
         <v>3764</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -2868,13 +2892,13 @@
         <v>8289</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>12</v>
@@ -2883,13 +2907,13 @@
         <v>12053</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>97</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2904,13 +2928,13 @@
         <v>199544</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H17" s="7">
         <v>190</v>
@@ -2919,13 +2943,13 @@
         <v>199379</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="M17" s="7">
         <v>392</v>
@@ -2934,13 +2958,13 @@
         <v>398923</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>105</v>
+        <v>48</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2996,7 +3020,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3008,13 +3032,13 @@
         <v>4988</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H19" s="7">
         <v>11</v>
@@ -3023,13 +3047,13 @@
         <v>11809</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="M19" s="7">
         <v>16</v>
@@ -3038,13 +3062,13 @@
         <v>16797</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3059,13 +3083,13 @@
         <v>265823</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="H20" s="7">
         <v>259</v>
@@ -3074,13 +3098,13 @@
         <v>266335</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="M20" s="7">
         <v>520</v>
@@ -3089,13 +3113,13 @@
         <v>532158</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3151,7 +3175,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3163,13 +3187,13 @@
         <v>19284</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H22" s="7">
         <v>32</v>
@@ -3178,13 +3202,13 @@
         <v>29617</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="M22" s="7">
         <v>50</v>
@@ -3193,13 +3217,13 @@
         <v>48901</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>97</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3214,13 +3238,13 @@
         <v>595743</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H23" s="7">
         <v>589</v>
@@ -3229,13 +3253,13 @@
         <v>608602</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="M23" s="7">
         <v>1169</v>
@@ -3244,13 +3268,13 @@
         <v>1204345</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3306,7 +3330,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3318,13 +3342,13 @@
         <v>22328</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H25" s="7">
         <v>16</v>
@@ -3333,13 +3357,13 @@
         <v>17617</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M25" s="7">
         <v>39</v>
@@ -3348,13 +3372,13 @@
         <v>39945</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3369,13 +3393,13 @@
         <v>720449</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>87</v>
+        <v>43</v>
       </c>
       <c r="H26" s="7">
         <v>729</v>
@@ -3384,13 +3408,13 @@
         <v>765894</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="M26" s="7">
         <v>1441</v>
@@ -3399,13 +3423,13 @@
         <v>1486343</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3473,13 +3497,13 @@
         <v>86595</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="H28" s="7">
         <v>122</v>
@@ -3488,13 +3512,13 @@
         <v>121472</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="M28" s="7">
         <v>207</v>
@@ -3503,13 +3527,13 @@
         <v>208067</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>166</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3524,13 +3548,13 @@
         <v>3188930</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H29" s="7">
         <v>3175</v>
@@ -3539,28 +3563,28 @@
         <v>3257726</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="M29" s="7">
         <v>6303</v>
       </c>
       <c r="N29" s="7">
-        <v>6446656</v>
+        <v>6446655</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>174</v>
+        <v>47</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3602,7 +3626,7 @@
         <v>6510</v>
       </c>
       <c r="N30" s="7">
-        <v>6654723</v>
+        <v>6654722</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -3616,7 +3640,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -3640,7 +3664,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{411DA880-CF92-465F-BFED-021C65DB0342}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1038EB6-0DE3-4B73-A91F-2888524464FB}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3657,7 +3681,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3762,39 +3786,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3807,39 +3831,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3852,39 +3876,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3901,13 +3925,13 @@
         <v>26541</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>180</v>
+        <v>92</v>
       </c>
       <c r="H7" s="7">
         <v>29</v>
@@ -3916,13 +3940,13 @@
         <v>31596</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="M7" s="7">
         <v>54</v>
@@ -3931,13 +3955,13 @@
         <v>58137</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>59</v>
+        <v>181</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3952,13 +3976,13 @@
         <v>478986</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>187</v>
+        <v>99</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="H8" s="7">
         <v>450</v>
@@ -3967,13 +3991,13 @@
         <v>491135</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="M8" s="7">
         <v>897</v>
@@ -3982,13 +4006,13 @@
         <v>970121</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>67</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4056,13 +4080,13 @@
         <v>11994</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="H10" s="7">
         <v>13</v>
@@ -4071,13 +4095,13 @@
         <v>13654</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="M10" s="7">
         <v>22</v>
@@ -4086,13 +4110,13 @@
         <v>25649</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4107,13 +4131,13 @@
         <v>311122</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="H11" s="7">
         <v>304</v>
@@ -4199,7 +4223,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4214,7 +4238,7 @@
         <v>209</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>210</v>
@@ -4268,7 +4292,7 @@
         <v>218</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="H14" s="7">
         <v>574</v>
@@ -4354,7 +4378,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4369,10 +4393,10 @@
         <v>225</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="H16" s="7">
         <v>14</v>
@@ -4381,13 +4405,13 @@
         <v>15446</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="M16" s="7">
         <v>30</v>
@@ -4396,13 +4420,13 @@
         <v>32453</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4417,13 +4441,13 @@
         <v>195612</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>235</v>
-      </c>
       <c r="G17" s="7" t="s">
-        <v>236</v>
+        <v>96</v>
       </c>
       <c r="H17" s="7">
         <v>198</v>
@@ -4432,13 +4456,13 @@
         <v>204145</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="M17" s="7">
         <v>378</v>
@@ -4447,13 +4471,13 @@
         <v>399756</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4509,7 +4533,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4521,13 +4545,13 @@
         <v>14220</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="H19" s="7">
         <v>11</v>
@@ -4536,13 +4560,13 @@
         <v>10845</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="M19" s="7">
         <v>24</v>
@@ -4551,13 +4575,13 @@
         <v>25065</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>248</v>
+        <v>110</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>249</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4572,13 +4596,13 @@
         <v>259761</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="H20" s="7">
         <v>257</v>
@@ -4587,13 +4611,13 @@
         <v>268295</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="M20" s="7">
         <v>505</v>
@@ -4602,13 +4626,13 @@
         <v>528056</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>236</v>
+        <v>254</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>255</v>
+        <v>204</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>256</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4664,7 +4688,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4676,13 +4700,13 @@
         <v>23394</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="H22" s="7">
         <v>31</v>
@@ -4691,13 +4715,13 @@
         <v>36313</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="M22" s="7">
         <v>52</v>
@@ -4706,13 +4730,13 @@
         <v>59707</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4727,13 +4751,13 @@
         <v>637121</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="H23" s="7">
         <v>605</v>
@@ -4742,13 +4766,13 @@
         <v>657540</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="M23" s="7">
         <v>1201</v>
@@ -4757,13 +4781,13 @@
         <v>1294661</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4819,7 +4843,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4834,10 +4858,10 @@
         <v>57</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>276</v>
+        <v>194</v>
       </c>
       <c r="H25" s="7">
         <v>29</v>
@@ -4846,13 +4870,13 @@
         <v>33021</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>278</v>
+        <v>163</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="M25" s="7">
         <v>46</v>
@@ -4861,13 +4885,13 @@
         <v>53465</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>280</v>
+        <v>53</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4882,13 +4906,13 @@
         <v>755438</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>283</v>
+        <v>203</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="H26" s="7">
         <v>726</v>
@@ -4897,13 +4921,13 @@
         <v>788499</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>287</v>
+        <v>171</v>
       </c>
       <c r="M26" s="7">
         <v>1423</v>
@@ -4912,13 +4936,13 @@
         <v>1543937</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>288</v>
+        <v>60</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4986,13 +5010,13 @@
         <v>140263</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>293</v>
+        <v>40</v>
       </c>
       <c r="H28" s="7">
         <v>174</v>
@@ -5001,13 +5025,13 @@
         <v>190095</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="M28" s="7">
         <v>297</v>
@@ -5016,13 +5040,13 @@
         <v>330359</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>298</v>
+        <v>161</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>299</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5037,13 +5061,13 @@
         <v>3275561</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>301</v>
+        <v>48</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="H29" s="7">
         <v>3114</v>
@@ -5052,13 +5076,13 @@
         <v>3357015</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="M29" s="7">
         <v>6191</v>
@@ -5067,13 +5091,13 @@
         <v>6632575</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>307</v>
+        <v>42</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>308</v>
+        <v>168</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5129,7 +5153,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -5153,7 +5177,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF9E8169-8697-437D-A1FD-67081E5848E5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CEFF87D-B18B-41B1-8930-7B3D15D037E9}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5170,7 +5194,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5277,13 +5301,13 @@
         <v>8609</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="H4" s="7">
         <v>21</v>
@@ -5292,13 +5316,13 @@
         <v>23752</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>312</v>
+        <v>179</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>260</v>
+        <v>298</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="M4" s="7">
         <v>30</v>
@@ -5307,13 +5331,13 @@
         <v>32361</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5328,13 +5352,13 @@
         <v>285152</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="H5" s="7">
         <v>256</v>
@@ -5343,13 +5367,13 @@
         <v>264951</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>319</v>
+        <v>186</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>269</v>
+        <v>306</v>
       </c>
       <c r="M5" s="7">
         <v>513</v>
@@ -5358,13 +5382,13 @@
         <v>550103</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5432,13 +5456,13 @@
         <v>11148</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>35</v>
+        <v>312</v>
       </c>
       <c r="H7" s="7">
         <v>8</v>
@@ -5447,13 +5471,13 @@
         <v>8574</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>275</v>
+        <v>313</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="M7" s="7">
         <v>19</v>
@@ -5462,13 +5486,13 @@
         <v>19722</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>127</v>
+        <v>316</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5483,13 +5507,13 @@
         <v>491427</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>44</v>
+        <v>320</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="H8" s="7">
         <v>476</v>
@@ -5498,13 +5522,13 @@
         <v>514510</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>284</v>
+        <v>322</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="M8" s="7">
         <v>940</v>
@@ -5513,13 +5537,13 @@
         <v>1005937</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>135</v>
+        <v>325</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5587,13 +5611,13 @@
         <v>6039</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>55</v>
+        <v>146</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -5602,13 +5626,13 @@
         <v>6410</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>339</v>
+        <v>69</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="M10" s="7">
         <v>12</v>
@@ -5617,13 +5641,13 @@
         <v>12449</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>146</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5638,13 +5662,13 @@
         <v>312526</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>65</v>
+        <v>155</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="H11" s="7">
         <v>326</v>
@@ -5653,13 +5677,13 @@
         <v>329899</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>323</v>
+        <v>337</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>345</v>
+        <v>79</v>
       </c>
       <c r="M11" s="7">
         <v>655</v>
@@ -5668,13 +5692,13 @@
         <v>642425</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>65</v>
+        <v>155</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5730,7 +5754,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5742,13 +5766,13 @@
         <v>16739</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>211</v>
+        <v>342</v>
       </c>
       <c r="H13" s="7">
         <v>24</v>
@@ -5757,13 +5781,13 @@
         <v>29898</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>297</v>
+        <v>344</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="M13" s="7">
         <v>40</v>
@@ -5772,13 +5796,13 @@
         <v>46637</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>296</v>
+        <v>346</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5793,13 +5817,13 @@
         <v>353225</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>219</v>
+        <v>350</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="H14" s="7">
         <v>334</v>
@@ -5808,13 +5832,13 @@
         <v>357385</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>306</v>
+        <v>354</v>
       </c>
       <c r="M14" s="7">
         <v>672</v>
@@ -5823,13 +5847,13 @@
         <v>710610</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>304</v>
+        <v>355</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5885,7 +5909,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5897,13 +5921,13 @@
         <v>3033</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>360</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>362</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -5912,13 +5936,13 @@
         <v>7098</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>160</v>
+        <v>361</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>364</v>
+        <v>346</v>
       </c>
       <c r="M16" s="7">
         <v>10</v>
@@ -5927,13 +5951,13 @@
         <v>10131</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>15</v>
+        <v>311</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>366</v>
+        <v>209</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5948,13 +5972,13 @@
         <v>208188</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="H17" s="7">
         <v>216</v>
@@ -5963,13 +5987,13 @@
         <v>211489</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>168</v>
+        <v>367</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>370</v>
+        <v>355</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="M17" s="7">
         <v>425</v>
@@ -5978,13 +6002,13 @@
         <v>419677</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>373</v>
+        <v>217</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>26</v>
+        <v>321</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6040,7 +6064,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6052,13 +6076,13 @@
         <v>8310</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>327</v>
+        <v>370</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="H19" s="7">
         <v>6</v>
@@ -6067,13 +6091,13 @@
         <v>6520</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="M19" s="7">
         <v>15</v>
@@ -6082,13 +6106,13 @@
         <v>14830</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>275</v>
+        <v>377</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6103,13 +6127,13 @@
         <v>254813</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>332</v>
+        <v>379</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>381</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>382</v>
       </c>
       <c r="H20" s="7">
         <v>257</v>
@@ -6118,13 +6142,13 @@
         <v>266595</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>384</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>385</v>
       </c>
       <c r="M20" s="7">
         <v>507</v>
@@ -6133,13 +6157,13 @@
         <v>521408</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>387</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6195,7 +6219,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6222,13 +6246,13 @@
         <v>34058</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>378</v>
+        <v>391</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>292</v>
+        <v>392</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="M22" s="7">
         <v>51</v>
@@ -6237,13 +6261,13 @@
         <v>59452</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6258,13 +6282,13 @@
         <v>631164</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="H23" s="7">
         <v>617</v>
@@ -6273,13 +6297,13 @@
         <v>657236</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>384</v>
+        <v>399</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>302</v>
+        <v>401</v>
       </c>
       <c r="M23" s="7">
         <v>1175</v>
@@ -6288,13 +6312,13 @@
         <v>1288400</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6350,7 +6374,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6365,10 +6389,10 @@
         <v>57</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="H25" s="7">
         <v>24</v>
@@ -6377,13 +6401,13 @@
         <v>27427</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>324</v>
+        <v>407</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="M25" s="7">
         <v>41</v>
@@ -6392,13 +6416,13 @@
         <v>47925</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>404</v>
+        <v>242</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>362</v>
+        <v>331</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6413,13 +6437,13 @@
         <v>758085</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="H26" s="7">
         <v>731</v>
@@ -6428,13 +6452,13 @@
         <v>798740</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>330</v>
+        <v>414</v>
       </c>
       <c r="M26" s="7">
         <v>1464</v>
@@ -6443,13 +6467,13 @@
         <v>1556825</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>410</v>
+        <v>250</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>368</v>
+        <v>337</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6517,13 +6541,13 @@
         <v>99770</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>412</v>
+        <v>318</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>389</v>
+        <v>416</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>413</v>
+        <v>176</v>
       </c>
       <c r="H28" s="7">
         <v>125</v>
@@ -6532,13 +6556,13 @@
         <v>143737</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>128</v>
+        <v>419</v>
       </c>
       <c r="M28" s="7">
         <v>218</v>
@@ -6547,13 +6571,13 @@
         <v>243507</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>416</v>
+        <v>392</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>209</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6568,13 +6592,13 @@
         <v>3294580</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>418</v>
+        <v>326</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>419</v>
+        <v>184</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>396</v>
+        <v>421</v>
       </c>
       <c r="H29" s="7">
         <v>3213</v>
@@ -6583,13 +6607,13 @@
         <v>3400805</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>134</v>
+        <v>423</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="M29" s="7">
         <v>6351</v>
@@ -6598,13 +6622,13 @@
         <v>6695385</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>422</v>
+        <v>401</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>217</v>
+        <v>98</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6660,7 +6684,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -6684,7 +6708,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{848227DF-17CD-4D09-A6AB-B853F6E370C0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5217D424-A88F-4C4D-BDA8-E490B1AB4AED}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6701,7 +6725,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6808,13 +6832,13 @@
         <v>15417</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>149</v>
+        <v>428</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="H4" s="7">
         <v>26</v>
@@ -6823,13 +6847,13 @@
         <v>13008</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>417</v>
+        <v>431</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="M4" s="7">
         <v>44</v>
@@ -6838,13 +6862,13 @@
         <v>28425</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>231</v>
+        <v>435</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6859,13 +6883,13 @@
         <v>244881</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>156</v>
+        <v>438</v>
       </c>
       <c r="H5" s="7">
         <v>512</v>
@@ -6874,13 +6898,13 @@
         <v>258395</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>423</v>
+        <v>441</v>
       </c>
       <c r="M5" s="7">
         <v>825</v>
@@ -6889,13 +6913,13 @@
         <v>503275</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>240</v>
+        <v>443</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6963,13 +6987,13 @@
         <v>13973</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>437</v>
+        <v>341</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>400</v>
+        <v>445</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>297</v>
+        <v>76</v>
       </c>
       <c r="H7" s="7">
         <v>24</v>
@@ -6978,13 +7002,13 @@
         <v>19143</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>258</v>
+        <v>447</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="M7" s="7">
         <v>35</v>
@@ -6993,13 +7017,13 @@
         <v>33116</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>440</v>
+        <v>409</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7014,13 +7038,13 @@
         <v>504254</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>442</v>
+        <v>351</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>306</v>
+        <v>84</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>407</v>
+        <v>450</v>
       </c>
       <c r="H8" s="7">
         <v>691</v>
@@ -7029,13 +7053,13 @@
         <v>534073</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>268</v>
+        <v>452</v>
       </c>
       <c r="M8" s="7">
         <v>1061</v>
@@ -7044,13 +7068,13 @@
         <v>1038327</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>444</v>
+        <v>453</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>446</v>
+        <v>415</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7118,13 +7142,13 @@
         <v>34670</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="H10" s="7">
         <v>108</v>
@@ -7133,13 +7157,13 @@
         <v>60411</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="M10" s="7">
         <v>154</v>
@@ -7148,13 +7172,13 @@
         <v>95081</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7169,13 +7193,13 @@
         <v>287570</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="H11" s="7">
         <v>428</v>
@@ -7184,13 +7208,13 @@
         <v>312873</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="M11" s="7">
         <v>742</v>
@@ -7199,13 +7223,13 @@
         <v>600443</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7261,7 +7285,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -7273,13 +7297,13 @@
         <v>20517</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>131</v>
+        <v>473</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>401</v>
+        <v>329</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="H13" s="7">
         <v>83</v>
@@ -7288,13 +7312,13 @@
         <v>40918</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>468</v>
+        <v>226</v>
       </c>
       <c r="M13" s="7">
         <v>110</v>
@@ -7303,13 +7327,13 @@
         <v>61435</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7324,13 +7348,13 @@
         <v>301723</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>137</v>
+        <v>480</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>406</v>
+        <v>334</v>
       </c>
       <c r="H14" s="7">
         <v>516</v>
@@ -7339,13 +7363,13 @@
         <v>387638</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>473</v>
+        <v>482</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>474</v>
+        <v>234</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="M14" s="7">
         <v>781</v>
@@ -7354,13 +7378,13 @@
         <v>689361</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7416,7 +7440,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7428,13 +7452,13 @@
         <v>26409</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="H16" s="7">
         <v>120</v>
@@ -7443,13 +7467,13 @@
         <v>48265</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="M16" s="7">
         <v>164</v>
@@ -7458,13 +7482,13 @@
         <v>74674</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7479,13 +7503,13 @@
         <v>170339</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="H17" s="7">
         <v>372</v>
@@ -7494,13 +7518,13 @@
         <v>183638</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="M17" s="7">
         <v>607</v>
@@ -7509,13 +7533,13 @@
         <v>353977</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7571,7 +7595,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7583,13 +7607,13 @@
         <v>39302</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="H19" s="7">
         <v>100</v>
@@ -7598,13 +7622,13 @@
         <v>43789</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="M19" s="7">
         <v>172</v>
@@ -7613,13 +7637,13 @@
         <v>83091</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7634,13 +7658,13 @@
         <v>237921</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="H20" s="7">
         <v>360</v>
@@ -7649,13 +7673,13 @@
         <v>231833</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="M20" s="7">
         <v>659</v>
@@ -7664,13 +7688,13 @@
         <v>469754</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7726,7 +7750,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7738,13 +7762,13 @@
         <v>37560</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>263</v>
+        <v>181</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>94</v>
+        <v>522</v>
       </c>
       <c r="H22" s="7">
         <v>97</v>
@@ -7753,13 +7777,13 @@
         <v>60043</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>516</v>
+        <v>523</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>91</v>
+        <v>286</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>517</v>
+        <v>524</v>
       </c>
       <c r="M22" s="7">
         <v>139</v>
@@ -7768,13 +7792,13 @@
         <v>97603</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>519</v>
+        <v>526</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>94</v>
+        <v>527</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7789,13 +7813,13 @@
         <v>590194</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>520</v>
+        <v>528</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>102</v>
+        <v>529</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>272</v>
+        <v>190</v>
       </c>
       <c r="H23" s="7">
         <v>863</v>
@@ -7804,13 +7828,13 @@
         <v>744160</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>521</v>
+        <v>530</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>522</v>
+        <v>531</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>99</v>
+        <v>293</v>
       </c>
       <c r="M23" s="7">
         <v>1420</v>
@@ -7819,13 +7843,13 @@
         <v>1334354</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>523</v>
+        <v>532</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>102</v>
+        <v>533</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>524</v>
+        <v>534</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7881,7 +7905,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -7893,13 +7917,13 @@
         <v>29260</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>53</v>
+        <v>284</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>525</v>
+        <v>535</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>40</v>
+        <v>536</v>
       </c>
       <c r="H25" s="7">
         <v>39</v>
@@ -7908,13 +7932,13 @@
         <v>26115</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>526</v>
+        <v>160</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>159</v>
+        <v>537</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>527</v>
+        <v>538</v>
       </c>
       <c r="M25" s="7">
         <v>72</v>
@@ -7923,13 +7947,13 @@
         <v>55375</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>528</v>
+        <v>539</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>529</v>
+        <v>276</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>530</v>
+        <v>540</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7944,13 +7968,13 @@
         <v>830168</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>61</v>
+        <v>290</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>48</v>
+        <v>541</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>531</v>
+        <v>542</v>
       </c>
       <c r="H26" s="7">
         <v>1021</v>
@@ -7959,13 +7983,13 @@
         <v>838916</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>532</v>
+        <v>169</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>533</v>
+        <v>543</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>169</v>
+        <v>544</v>
       </c>
       <c r="M26" s="7">
         <v>1750</v>
@@ -7974,13 +7998,13 @@
         <v>1669084</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>534</v>
+        <v>545</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>535</v>
+        <v>546</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>536</v>
+        <v>282</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8048,13 +8072,13 @@
         <v>217109</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>537</v>
+        <v>547</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>538</v>
+        <v>548</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>539</v>
+        <v>211</v>
       </c>
       <c r="H28" s="7">
         <v>597</v>
@@ -8063,13 +8087,13 @@
         <v>311693</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>540</v>
+        <v>549</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>262</v>
+        <v>550</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>541</v>
+        <v>551</v>
       </c>
       <c r="M28" s="7">
         <v>890</v>
@@ -8078,13 +8102,13 @@
         <v>528802</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>542</v>
+        <v>476</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>543</v>
+        <v>552</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>544</v>
+        <v>553</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8099,13 +8123,13 @@
         <v>3167049</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>545</v>
+        <v>554</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>546</v>
+        <v>219</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>547</v>
+        <v>555</v>
       </c>
       <c r="H29" s="7">
         <v>4763</v>
@@ -8114,28 +8138,28 @@
         <v>3491525</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>548</v>
+        <v>556</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>549</v>
+        <v>557</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>270</v>
+        <v>558</v>
       </c>
       <c r="M29" s="7">
         <v>7845</v>
       </c>
       <c r="N29" s="7">
-        <v>6658574</v>
+        <v>6658573</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>550</v>
+        <v>483</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>551</v>
+        <v>559</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>552</v>
+        <v>560</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8177,7 +8201,7 @@
         <v>8735</v>
       </c>
       <c r="N30" s="7">
-        <v>7187376</v>
+        <v>7187375</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -8191,7 +8215,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A13-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P16A13-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE09A59E-BDD7-413B-9BD7-3DE9D74C361B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6AB0CDD-CC48-467F-944F-70A10497C0BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{ED09FC8C-161B-4E78-A0DC-566BDC2EAED9}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{9B6AD255-F6AF-494A-B1FC-ACD625B1E725}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="580">
   <si>
     <t>Población que ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2007 (Tasa respuesta: 99,98%)</t>
   </si>
@@ -563,7 +563,58 @@
     <t>Población que ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2012 (Tasa respuesta: 99,71%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>89,81%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
   </si>
   <si>
     <t>5,25%</t>
@@ -668,1060 +719,1066 @@
     <t>97,45%</t>
   </si>
   <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>89,17%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>87,81%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
     <t>4,01%</t>
   </si>
   <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2023 (Tasa respuesta: 99,91%)</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>86,92%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>89,45%</t>
+  </si>
+  <si>
+    <t>85,8%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>83,97%</t>
+  </si>
+  <si>
+    <t>80,71%</t>
+  </si>
+  <si>
+    <t>86,89%</t>
+  </si>
+  <si>
+    <t>86,57%</t>
+  </si>
+  <si>
+    <t>84,16%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>89,4%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>82,57%</t>
+  </si>
+  <si>
+    <t>90,07%</t>
+  </si>
+  <si>
+    <t>78,95%</t>
+  </si>
+  <si>
+    <t>75,33%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>82,47%</t>
+  </si>
+  <si>
+    <t>79,65%</t>
+  </si>
+  <si>
+    <t>84,84%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>82,21%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>84,1%</t>
+  </si>
+  <si>
+    <t>80,44%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>85,12%</t>
+  </si>
+  <si>
+    <t>82,73%</t>
+  </si>
+  <si>
+    <t>87,21%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
     <t>6,02%</t>
   </si>
   <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
   </si>
   <si>
     <t>93,98%</t>
   </si>
   <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>89,17%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>87,81%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido medicinas para alteraciones digestivas en las dos últimas semanas en 2023 (Tasa respuesta: 99,91%)</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>85,53%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>83,82%</t>
-  </si>
-  <si>
-    <t>80,53%</t>
-  </si>
-  <si>
-    <t>86,77%</t>
-  </si>
-  <si>
-    <t>86,33%</t>
-  </si>
-  <si>
-    <t>83,89%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>90,03%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>90,08%</t>
-  </si>
-  <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>75,54%</t>
-  </si>
-  <si>
-    <t>82,43%</t>
-  </si>
-  <si>
-    <t>79,76%</t>
-  </si>
-  <si>
-    <t>84,95%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>81,94%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
-  </si>
-  <si>
-    <t>80,48%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>84,97%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
-  </si>
-  <si>
-    <t>87,04%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
   </si>
   <si>
     <t>94,02%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
   </si>
 </sst>
 </file>
@@ -2133,7 +2190,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1898E90-9CF4-44A1-9FEF-D78BEA22DCB1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4F025CB-A131-4C9C-A26C-AE5427F8F002}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3560,7 +3617,7 @@
         <v>3175</v>
       </c>
       <c r="I29" s="7">
-        <v>3257726</v>
+        <v>3257725</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>167</v>
@@ -3611,7 +3668,7 @@
         <v>3297</v>
       </c>
       <c r="I30" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -3664,7 +3721,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1038EB6-0DE3-4B73-A91F-2888524464FB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{224F595E-6AEC-4145-9CDD-2F6445817A18}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3782,43 +3839,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>15</v>
+      </c>
+      <c r="D4" s="7">
+        <v>18325</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>174</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>17</v>
+      </c>
+      <c r="I4" s="7">
+        <v>18458</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>32</v>
+      </c>
+      <c r="N4" s="7">
+        <v>36783</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3827,43 +3890,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>263</v>
+      </c>
+      <c r="D5" s="7">
+        <v>271878</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>234</v>
+      </c>
+      <c r="I5" s="7">
+        <v>262822</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>497</v>
+      </c>
+      <c r="N5" s="7">
+        <v>534700</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3872,43 +3941,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>278</v>
+      </c>
+      <c r="D6" s="7">
+        <v>290203</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>251</v>
+      </c>
+      <c r="I6" s="7">
+        <v>281280</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>529</v>
+      </c>
+      <c r="N6" s="7">
+        <v>571483</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>174</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3925,10 +4000,10 @@
         <v>26541</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>92</v>
@@ -3940,13 +4015,13 @@
         <v>31596</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="M7" s="7">
         <v>54</v>
@@ -3955,13 +4030,13 @@
         <v>58137</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3976,13 +4051,13 @@
         <v>478986</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>99</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="H8" s="7">
         <v>450</v>
@@ -3991,13 +4066,13 @@
         <v>491135</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="M8" s="7">
         <v>897</v>
@@ -4006,13 +4081,13 @@
         <v>970121</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4080,13 +4155,13 @@
         <v>11994</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="H10" s="7">
         <v>13</v>
@@ -4095,13 +4170,13 @@
         <v>13654</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="M10" s="7">
         <v>22</v>
@@ -4110,13 +4185,13 @@
         <v>25649</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4131,13 +4206,13 @@
         <v>311122</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="H11" s="7">
         <v>304</v>
@@ -4146,13 +4221,13 @@
         <v>327366</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="M11" s="7">
         <v>613</v>
@@ -4161,13 +4236,13 @@
         <v>638487</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4229,49 +4304,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D13" s="7">
-        <v>26665</v>
+        <v>8340</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>209</v>
+        <v>108</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>11</v>
+        <v>226</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="H13" s="7">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="I13" s="7">
-        <v>49219</v>
+        <v>30761</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="M13" s="7">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="N13" s="7">
-        <v>75884</v>
+        <v>39101</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4280,49 +4355,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>600</v>
+        <v>337</v>
       </c>
       <c r="D14" s="7">
-        <v>637521</v>
+        <v>365642</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>217</v>
+        <v>118</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>218</v>
+        <v>234</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>21</v>
+        <v>235</v>
       </c>
       <c r="H14" s="7">
-        <v>574</v>
+        <v>340</v>
       </c>
       <c r="I14" s="7">
-        <v>620035</v>
+        <v>357213</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="M14" s="7">
-        <v>1174</v>
+        <v>677</v>
       </c>
       <c r="N14" s="7">
-        <v>1257556</v>
+        <v>722855</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4331,10 +4406,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>622</v>
+        <v>344</v>
       </c>
       <c r="D15" s="7">
-        <v>664186</v>
+        <v>373982</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4346,10 +4421,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>621</v>
+        <v>370</v>
       </c>
       <c r="I15" s="7">
-        <v>669254</v>
+        <v>387974</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4361,10 +4436,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1243</v>
+        <v>714</v>
       </c>
       <c r="N15" s="7">
-        <v>1333440</v>
+        <v>761956</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4390,13 +4465,13 @@
         <v>17006</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>89</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="H16" s="7">
         <v>14</v>
@@ -4405,13 +4480,13 @@
         <v>15446</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="M16" s="7">
         <v>30</v>
@@ -4420,13 +4495,13 @@
         <v>32453</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4441,10 +4516,10 @@
         <v>195612</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>96</v>
@@ -4456,13 +4531,13 @@
         <v>204145</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="M17" s="7">
         <v>378</v>
@@ -4471,13 +4546,13 @@
         <v>399756</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4545,13 +4620,13 @@
         <v>14220</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="H19" s="7">
         <v>11</v>
@@ -4560,13 +4635,13 @@
         <v>10845</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="M19" s="7">
         <v>24</v>
@@ -4575,13 +4650,13 @@
         <v>25065</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>110</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4596,13 +4671,13 @@
         <v>259761</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="H20" s="7">
         <v>257</v>
@@ -4611,13 +4686,13 @@
         <v>268295</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="M20" s="7">
         <v>505</v>
@@ -4626,10 +4701,10 @@
         <v>528056</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>119</v>
@@ -4700,13 +4775,13 @@
         <v>23394</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>256</v>
+        <v>273</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="H22" s="7">
         <v>31</v>
@@ -4715,13 +4790,13 @@
         <v>36313</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="M22" s="7">
         <v>52</v>
@@ -4730,13 +4805,13 @@
         <v>59707</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>262</v>
+        <v>279</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>263</v>
+        <v>280</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4751,13 +4826,13 @@
         <v>637121</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>265</v>
+        <v>282</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>266</v>
+        <v>283</v>
       </c>
       <c r="H23" s="7">
         <v>605</v>
@@ -4766,13 +4841,13 @@
         <v>657540</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>267</v>
+        <v>284</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>269</v>
+        <v>286</v>
       </c>
       <c r="M23" s="7">
         <v>1201</v>
@@ -4781,13 +4856,13 @@
         <v>1294661</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4858,10 +4933,10 @@
         <v>57</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="H25" s="7">
         <v>29</v>
@@ -4870,13 +4945,13 @@
         <v>33021</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>274</v>
+        <v>291</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>163</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="M25" s="7">
         <v>46</v>
@@ -4888,10 +4963,10 @@
         <v>53</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>276</v>
+        <v>293</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>277</v>
+        <v>294</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4909,10 +4984,10 @@
         <v>65</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>278</v>
+        <v>295</v>
       </c>
       <c r="H26" s="7">
         <v>726</v>
@@ -4921,10 +4996,10 @@
         <v>788499</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>279</v>
+        <v>296</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>171</v>
@@ -4939,10 +5014,10 @@
         <v>60</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>281</v>
+        <v>298</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>282</v>
+        <v>299</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5010,10 +5085,10 @@
         <v>140263</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>283</v>
+        <v>300</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>284</v>
+        <v>301</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>40</v>
@@ -5025,13 +5100,13 @@
         <v>190095</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>285</v>
+        <v>302</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>287</v>
+        <v>304</v>
       </c>
       <c r="M28" s="7">
         <v>297</v>
@@ -5040,7 +5115,7 @@
         <v>330359</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>161</v>
@@ -5058,16 +5133,16 @@
         <v>3077</v>
       </c>
       <c r="D29" s="7">
-        <v>3275561</v>
+        <v>3275562</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>289</v>
+        <v>306</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>48</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="H29" s="7">
         <v>3114</v>
@@ -5076,13 +5151,13 @@
         <v>3357015</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>291</v>
+        <v>308</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>293</v>
+        <v>310</v>
       </c>
       <c r="M29" s="7">
         <v>6191</v>
@@ -5091,7 +5166,7 @@
         <v>6632575</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>42</v>
@@ -5109,7 +5184,7 @@
         <v>3200</v>
       </c>
       <c r="D30" s="7">
-        <v>3415824</v>
+        <v>3415825</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -5177,7 +5252,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CEFF87D-B18B-41B1-8930-7B3D15D037E9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBCE07C1-6F48-433F-9F0D-EBC7B3F62478}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5194,7 +5269,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>295</v>
+        <v>312</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5304,10 +5379,10 @@
         <v>93</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>296</v>
+        <v>313</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>297</v>
+        <v>314</v>
       </c>
       <c r="H4" s="7">
         <v>21</v>
@@ -5316,13 +5391,13 @@
         <v>23752</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>298</v>
+        <v>315</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>299</v>
+        <v>316</v>
       </c>
       <c r="M4" s="7">
         <v>30</v>
@@ -5331,13 +5406,13 @@
         <v>32361</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>302</v>
+        <v>319</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5355,10 +5430,10 @@
         <v>101</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>303</v>
+        <v>320</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="H5" s="7">
         <v>256</v>
@@ -5367,13 +5442,13 @@
         <v>264951</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>306</v>
+        <v>323</v>
       </c>
       <c r="M5" s="7">
         <v>513</v>
@@ -5382,13 +5457,13 @@
         <v>550103</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>307</v>
+        <v>324</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>308</v>
+        <v>325</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>309</v>
+        <v>326</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5456,13 +5531,13 @@
         <v>11148</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>310</v>
+        <v>327</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>311</v>
+        <v>328</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="H7" s="7">
         <v>8</v>
@@ -5471,13 +5546,13 @@
         <v>8574</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>313</v>
+        <v>330</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>314</v>
+        <v>331</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>315</v>
+        <v>332</v>
       </c>
       <c r="M7" s="7">
         <v>19</v>
@@ -5486,13 +5561,13 @@
         <v>19722</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>316</v>
+        <v>333</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>318</v>
+        <v>335</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5507,13 +5582,13 @@
         <v>491427</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>319</v>
+        <v>336</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>321</v>
+        <v>338</v>
       </c>
       <c r="H8" s="7">
         <v>476</v>
@@ -5522,13 +5597,13 @@
         <v>514510</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>322</v>
+        <v>339</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>323</v>
+        <v>340</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>324</v>
+        <v>341</v>
       </c>
       <c r="M8" s="7">
         <v>940</v>
@@ -5537,13 +5612,13 @@
         <v>1005937</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>325</v>
+        <v>342</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>326</v>
+        <v>343</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>327</v>
+        <v>344</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5614,10 +5689,10 @@
         <v>146</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>328</v>
+        <v>345</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>329</v>
+        <v>178</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -5626,13 +5701,13 @@
         <v>6410</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>330</v>
+        <v>346</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>69</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
       <c r="M10" s="7">
         <v>12</v>
@@ -5644,10 +5719,10 @@
         <v>146</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5665,10 +5740,10 @@
         <v>155</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>334</v>
+        <v>188</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="H11" s="7">
         <v>326</v>
@@ -5677,10 +5752,10 @@
         <v>329899</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>336</v>
+        <v>351</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>337</v>
+        <v>352</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>79</v>
@@ -5695,10 +5770,10 @@
         <v>155</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>338</v>
+        <v>353</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>339</v>
+        <v>354</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5766,13 +5841,13 @@
         <v>16739</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>342</v>
+        <v>357</v>
       </c>
       <c r="H13" s="7">
         <v>24</v>
@@ -5781,13 +5856,13 @@
         <v>29898</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>343</v>
+        <v>358</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>344</v>
+        <v>359</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="M13" s="7">
         <v>40</v>
@@ -5796,13 +5871,13 @@
         <v>46637</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>347</v>
+        <v>362</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>348</v>
+        <v>363</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5817,13 +5892,13 @@
         <v>353225</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>349</v>
+        <v>364</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>350</v>
+        <v>365</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>351</v>
+        <v>366</v>
       </c>
       <c r="H14" s="7">
         <v>334</v>
@@ -5832,13 +5907,13 @@
         <v>357385</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>352</v>
+        <v>367</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>353</v>
+        <v>368</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>354</v>
+        <v>369</v>
       </c>
       <c r="M14" s="7">
         <v>672</v>
@@ -5847,13 +5922,13 @@
         <v>710610</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>355</v>
+        <v>370</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>356</v>
+        <v>371</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>357</v>
+        <v>372</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5921,13 +5996,13 @@
         <v>3033</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>358</v>
+        <v>373</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>359</v>
+        <v>374</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -5936,13 +6011,13 @@
         <v>7098</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>361</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>346</v>
       </c>
       <c r="M16" s="7">
         <v>10</v>
@@ -5951,13 +6026,13 @@
         <v>10131</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>311</v>
+        <v>328</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>209</v>
+        <v>379</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5972,13 +6047,13 @@
         <v>208188</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>364</v>
+        <v>380</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>365</v>
+        <v>381</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>366</v>
+        <v>382</v>
       </c>
       <c r="H17" s="7">
         <v>216</v>
@@ -5987,13 +6062,13 @@
         <v>211489</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>367</v>
+        <v>383</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>355</v>
+        <v>370</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>368</v>
+        <v>384</v>
       </c>
       <c r="M17" s="7">
         <v>425</v>
@@ -6002,13 +6077,13 @@
         <v>419677</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>369</v>
+        <v>385</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>217</v>
+        <v>386</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>321</v>
+        <v>338</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6076,13 +6151,13 @@
         <v>8310</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>370</v>
+        <v>387</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>371</v>
+        <v>388</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>372</v>
+        <v>389</v>
       </c>
       <c r="H19" s="7">
         <v>6</v>
@@ -6091,13 +6166,13 @@
         <v>6520</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>374</v>
+        <v>391</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>375</v>
+        <v>392</v>
       </c>
       <c r="M19" s="7">
         <v>15</v>
@@ -6106,13 +6181,13 @@
         <v>14830</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>376</v>
+        <v>393</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>377</v>
+        <v>394</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>378</v>
+        <v>395</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6127,13 +6202,13 @@
         <v>254813</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>380</v>
+        <v>397</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>381</v>
+        <v>398</v>
       </c>
       <c r="H20" s="7">
         <v>257</v>
@@ -6142,13 +6217,13 @@
         <v>266595</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>382</v>
+        <v>399</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>383</v>
+        <v>400</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>384</v>
+        <v>401</v>
       </c>
       <c r="M20" s="7">
         <v>507</v>
@@ -6157,13 +6232,13 @@
         <v>521408</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>385</v>
+        <v>402</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>386</v>
+        <v>403</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>387</v>
+        <v>404</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6231,13 +6306,13 @@
         <v>25394</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>388</v>
+        <v>405</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>389</v>
+        <v>406</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>390</v>
+        <v>407</v>
       </c>
       <c r="H22" s="7">
         <v>29</v>
@@ -6246,13 +6321,13 @@
         <v>34058</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>391</v>
+        <v>408</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>392</v>
+        <v>409</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>393</v>
+        <v>410</v>
       </c>
       <c r="M22" s="7">
         <v>51</v>
@@ -6261,13 +6336,13 @@
         <v>59452</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>394</v>
+        <v>411</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>395</v>
+        <v>412</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6282,13 +6357,13 @@
         <v>631164</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>396</v>
+        <v>413</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>397</v>
+        <v>414</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>398</v>
+        <v>415</v>
       </c>
       <c r="H23" s="7">
         <v>617</v>
@@ -6297,13 +6372,13 @@
         <v>657236</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>399</v>
+        <v>416</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>400</v>
+        <v>417</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>401</v>
+        <v>418</v>
       </c>
       <c r="M23" s="7">
         <v>1175</v>
@@ -6312,13 +6387,13 @@
         <v>1288400</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>402</v>
+        <v>419</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>403</v>
+        <v>420</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6389,10 +6464,10 @@
         <v>57</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>404</v>
+        <v>421</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>405</v>
+        <v>181</v>
       </c>
       <c r="H25" s="7">
         <v>24</v>
@@ -6401,13 +6476,13 @@
         <v>27427</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>406</v>
+        <v>422</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>407</v>
+        <v>423</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>408</v>
+        <v>424</v>
       </c>
       <c r="M25" s="7">
         <v>41</v>
@@ -6416,13 +6491,13 @@
         <v>47925</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>409</v>
+        <v>425</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>331</v>
+        <v>347</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6440,10 +6515,10 @@
         <v>65</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>410</v>
+        <v>191</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>411</v>
+        <v>426</v>
       </c>
       <c r="H26" s="7">
         <v>731</v>
@@ -6452,13 +6527,13 @@
         <v>798740</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>412</v>
+        <v>427</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>413</v>
+        <v>428</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>414</v>
+        <v>429</v>
       </c>
       <c r="M26" s="7">
         <v>1464</v>
@@ -6467,13 +6542,13 @@
         <v>1556825</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>337</v>
+        <v>352</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>415</v>
+        <v>430</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6541,13 +6616,13 @@
         <v>99770</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>318</v>
+        <v>335</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>416</v>
+        <v>431</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="H28" s="7">
         <v>125</v>
@@ -6556,13 +6631,13 @@
         <v>143737</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>417</v>
+        <v>432</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>418</v>
+        <v>433</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>419</v>
+        <v>434</v>
       </c>
       <c r="M28" s="7">
         <v>218</v>
@@ -6571,10 +6646,10 @@
         <v>243507</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>392</v>
+        <v>409</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>420</v>
+        <v>435</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>90</v>
@@ -6592,13 +6667,13 @@
         <v>3294580</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>326</v>
+        <v>343</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>421</v>
+        <v>436</v>
       </c>
       <c r="H29" s="7">
         <v>3213</v>
@@ -6607,13 +6682,13 @@
         <v>3400805</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>422</v>
+        <v>437</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>423</v>
+        <v>438</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>424</v>
+        <v>439</v>
       </c>
       <c r="M29" s="7">
         <v>6351</v>
@@ -6622,13 +6697,13 @@
         <v>6695385</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>401</v>
+        <v>418</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>98</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>425</v>
+        <v>440</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6708,7 +6783,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5217D424-A88F-4C4D-BDA8-E490B1AB4AED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{867C1753-4342-462A-9847-92C8C01449A3}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6725,7 +6800,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>426</v>
+        <v>441</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6829,46 +6904,46 @@
         <v>18</v>
       </c>
       <c r="D4" s="7">
-        <v>15417</v>
+        <v>19561</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>427</v>
+        <v>442</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>428</v>
+        <v>208</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>429</v>
+        <v>443</v>
       </c>
       <c r="H4" s="7">
         <v>26</v>
       </c>
       <c r="I4" s="7">
-        <v>13008</v>
+        <v>13311</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>430</v>
+        <v>444</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>431</v>
+        <v>445</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>432</v>
+        <v>446</v>
       </c>
       <c r="M4" s="7">
         <v>44</v>
       </c>
       <c r="N4" s="7">
-        <v>28425</v>
+        <v>32872</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>433</v>
+        <v>447</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>435</v>
+        <v>449</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6880,46 +6955,46 @@
         <v>313</v>
       </c>
       <c r="D5" s="7">
-        <v>244881</v>
+        <v>291882</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>436</v>
+        <v>450</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>437</v>
+        <v>451</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>438</v>
+        <v>217</v>
       </c>
       <c r="H5" s="7">
         <v>512</v>
       </c>
       <c r="I5" s="7">
-        <v>258395</v>
+        <v>276324</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>439</v>
+        <v>452</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>440</v>
+        <v>453</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>441</v>
+        <v>454</v>
       </c>
       <c r="M5" s="7">
         <v>825</v>
       </c>
       <c r="N5" s="7">
-        <v>503275</v>
+        <v>568205</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>442</v>
+        <v>455</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>443</v>
+        <v>456</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>444</v>
+        <v>457</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6931,7 +7006,7 @@
         <v>331</v>
       </c>
       <c r="D6" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -6946,7 +7021,7 @@
         <v>538</v>
       </c>
       <c r="I6" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -6961,7 +7036,7 @@
         <v>869</v>
       </c>
       <c r="N6" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -6984,46 +7059,46 @@
         <v>11</v>
       </c>
       <c r="D7" s="7">
-        <v>13973</v>
+        <v>13343</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>341</v>
+        <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>445</v>
+        <v>458</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>76</v>
+        <v>278</v>
       </c>
       <c r="H7" s="7">
         <v>24</v>
       </c>
       <c r="I7" s="7">
-        <v>19143</v>
+        <v>17243</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>446</v>
+        <v>433</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>231</v>
+        <v>460</v>
       </c>
       <c r="M7" s="7">
         <v>35</v>
       </c>
       <c r="N7" s="7">
-        <v>33116</v>
+        <v>30585</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>448</v>
+        <v>461</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>409</v>
+        <v>462</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>449</v>
+        <v>463</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7035,46 +7110,46 @@
         <v>370</v>
       </c>
       <c r="D8" s="7">
-        <v>504254</v>
+        <v>504050</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>351</v>
+        <v>21</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>84</v>
+        <v>287</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>450</v>
+        <v>464</v>
       </c>
       <c r="H8" s="7">
         <v>691</v>
       </c>
       <c r="I8" s="7">
-        <v>534073</v>
+        <v>496482</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>240</v>
+        <v>465</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>452</v>
+        <v>466</v>
       </c>
       <c r="M8" s="7">
         <v>1061</v>
       </c>
       <c r="N8" s="7">
-        <v>1038327</v>
+        <v>1000533</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>453</v>
+        <v>467</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>454</v>
+        <v>468</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>415</v>
+        <v>469</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7086,7 +7161,7 @@
         <v>381</v>
       </c>
       <c r="D9" s="7">
-        <v>518227</v>
+        <v>517393</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -7101,7 +7176,7 @@
         <v>715</v>
       </c>
       <c r="I9" s="7">
-        <v>553216</v>
+        <v>513725</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -7116,7 +7191,7 @@
         <v>1096</v>
       </c>
       <c r="N9" s="7">
-        <v>1071443</v>
+        <v>1031118</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -7139,46 +7214,46 @@
         <v>46</v>
       </c>
       <c r="D10" s="7">
-        <v>34670</v>
+        <v>33349</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>455</v>
+        <v>470</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>456</v>
+        <v>471</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>457</v>
+        <v>472</v>
       </c>
       <c r="H10" s="7">
         <v>108</v>
       </c>
       <c r="I10" s="7">
-        <v>60411</v>
+        <v>55964</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>458</v>
+        <v>473</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>459</v>
+        <v>474</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>460</v>
+        <v>475</v>
       </c>
       <c r="M10" s="7">
         <v>154</v>
       </c>
       <c r="N10" s="7">
-        <v>95081</v>
+        <v>89313</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>461</v>
+        <v>476</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>462</v>
+        <v>477</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>463</v>
+        <v>478</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7190,46 +7265,46 @@
         <v>314</v>
       </c>
       <c r="D11" s="7">
-        <v>287570</v>
+        <v>282701</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>464</v>
+        <v>479</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>465</v>
+        <v>480</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>466</v>
+        <v>481</v>
       </c>
       <c r="H11" s="7">
         <v>428</v>
       </c>
       <c r="I11" s="7">
-        <v>312873</v>
+        <v>293164</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>467</v>
+        <v>482</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>468</v>
+        <v>483</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>469</v>
+        <v>484</v>
       </c>
       <c r="M11" s="7">
         <v>742</v>
       </c>
       <c r="N11" s="7">
-        <v>600443</v>
+        <v>575865</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>470</v>
+        <v>485</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>471</v>
+        <v>486</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>472</v>
+        <v>487</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7241,7 +7316,7 @@
         <v>360</v>
       </c>
       <c r="D12" s="7">
-        <v>322240</v>
+        <v>316050</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -7256,7 +7331,7 @@
         <v>536</v>
       </c>
       <c r="I12" s="7">
-        <v>373284</v>
+        <v>349128</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -7271,7 +7346,7 @@
         <v>896</v>
       </c>
       <c r="N12" s="7">
-        <v>695524</v>
+        <v>665178</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -7294,46 +7369,46 @@
         <v>27</v>
       </c>
       <c r="D13" s="7">
-        <v>20517</v>
+        <v>19349</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>473</v>
+        <v>488</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>329</v>
+        <v>90</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>474</v>
+        <v>489</v>
       </c>
       <c r="H13" s="7">
         <v>83</v>
       </c>
       <c r="I13" s="7">
-        <v>40918</v>
+        <v>37835</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>475</v>
+        <v>490</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>476</v>
+        <v>491</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>226</v>
+        <v>492</v>
       </c>
       <c r="M13" s="7">
         <v>110</v>
       </c>
       <c r="N13" s="7">
-        <v>61435</v>
+        <v>57184</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>477</v>
+        <v>493</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>478</v>
+        <v>494</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>479</v>
+        <v>495</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7345,46 +7420,46 @@
         <v>265</v>
       </c>
       <c r="D14" s="7">
-        <v>301723</v>
+        <v>293208</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>480</v>
+        <v>496</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>481</v>
+        <v>497</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>334</v>
+        <v>98</v>
       </c>
       <c r="H14" s="7">
         <v>516</v>
       </c>
       <c r="I14" s="7">
-        <v>387638</v>
+        <v>437883</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>482</v>
+        <v>498</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>234</v>
+        <v>499</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>483</v>
+        <v>500</v>
       </c>
       <c r="M14" s="7">
         <v>781</v>
       </c>
       <c r="N14" s="7">
-        <v>689361</v>
+        <v>731090</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>484</v>
+        <v>501</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>485</v>
+        <v>502</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>486</v>
+        <v>503</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7396,7 +7471,7 @@
         <v>292</v>
       </c>
       <c r="D15" s="7">
-        <v>322240</v>
+        <v>312557</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -7411,7 +7486,7 @@
         <v>599</v>
       </c>
       <c r="I15" s="7">
-        <v>428556</v>
+        <v>475718</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -7426,7 +7501,7 @@
         <v>891</v>
       </c>
       <c r="N15" s="7">
-        <v>750796</v>
+        <v>788274</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -7449,46 +7524,46 @@
         <v>44</v>
       </c>
       <c r="D16" s="7">
-        <v>26409</v>
+        <v>24002</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>487</v>
+        <v>476</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>488</v>
+        <v>504</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>489</v>
+        <v>505</v>
       </c>
       <c r="H16" s="7">
         <v>120</v>
       </c>
       <c r="I16" s="7">
-        <v>48265</v>
+        <v>43915</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>490</v>
+        <v>506</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>491</v>
+        <v>507</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>492</v>
+        <v>508</v>
       </c>
       <c r="M16" s="7">
         <v>164</v>
       </c>
       <c r="N16" s="7">
-        <v>74674</v>
+        <v>67917</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>489</v>
+        <v>509</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>493</v>
+        <v>510</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>494</v>
+        <v>511</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7500,46 +7575,46 @@
         <v>235</v>
       </c>
       <c r="D17" s="7">
-        <v>170339</v>
+        <v>154740</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>496</v>
+        <v>512</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>497</v>
+        <v>513</v>
       </c>
       <c r="H17" s="7">
         <v>372</v>
       </c>
       <c r="I17" s="7">
-        <v>183638</v>
+        <v>164741</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>498</v>
+        <v>514</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>499</v>
+        <v>515</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>500</v>
+        <v>516</v>
       </c>
       <c r="M17" s="7">
         <v>607</v>
       </c>
       <c r="N17" s="7">
-        <v>353977</v>
+        <v>319481</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>496</v>
+        <v>517</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>501</v>
+        <v>518</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>502</v>
+        <v>519</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7551,7 +7626,7 @@
         <v>279</v>
       </c>
       <c r="D18" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -7566,7 +7641,7 @@
         <v>492</v>
       </c>
       <c r="I18" s="7">
-        <v>231903</v>
+        <v>208656</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -7581,7 +7656,7 @@
         <v>771</v>
       </c>
       <c r="N18" s="7">
-        <v>428651</v>
+        <v>387398</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -7604,46 +7679,46 @@
         <v>72</v>
       </c>
       <c r="D19" s="7">
-        <v>39302</v>
+        <v>37528</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>503</v>
+        <v>520</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>504</v>
+        <v>521</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>505</v>
+        <v>522</v>
       </c>
       <c r="H19" s="7">
         <v>100</v>
       </c>
       <c r="I19" s="7">
-        <v>43789</v>
+        <v>40863</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>506</v>
+        <v>523</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>507</v>
+        <v>524</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>508</v>
+        <v>525</v>
       </c>
       <c r="M19" s="7">
         <v>172</v>
       </c>
       <c r="N19" s="7">
-        <v>83091</v>
+        <v>78390</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>509</v>
+        <v>526</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>510</v>
+        <v>527</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>511</v>
+        <v>528</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7655,46 +7730,46 @@
         <v>299</v>
       </c>
       <c r="D20" s="7">
-        <v>237921</v>
+        <v>232108</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>512</v>
+        <v>529</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>513</v>
+        <v>530</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>514</v>
+        <v>531</v>
       </c>
       <c r="H20" s="7">
         <v>360</v>
       </c>
       <c r="I20" s="7">
-        <v>231833</v>
+        <v>216193</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>515</v>
+        <v>532</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>516</v>
+        <v>533</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>517</v>
+        <v>534</v>
       </c>
       <c r="M20" s="7">
         <v>659</v>
       </c>
       <c r="N20" s="7">
-        <v>469754</v>
+        <v>448302</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>518</v>
+        <v>535</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>519</v>
+        <v>536</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>520</v>
+        <v>537</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7706,7 +7781,7 @@
         <v>371</v>
       </c>
       <c r="D21" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -7721,7 +7796,7 @@
         <v>460</v>
       </c>
       <c r="I21" s="7">
-        <v>275622</v>
+        <v>257056</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -7736,7 +7811,7 @@
         <v>831</v>
       </c>
       <c r="N21" s="7">
-        <v>552845</v>
+        <v>526692</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -7759,46 +7834,46 @@
         <v>42</v>
       </c>
       <c r="D22" s="7">
-        <v>37560</v>
+        <v>35874</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>521</v>
+        <v>538</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>181</v>
+        <v>539</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>522</v>
+        <v>540</v>
       </c>
       <c r="H22" s="7">
         <v>97</v>
       </c>
       <c r="I22" s="7">
-        <v>60043</v>
+        <v>55324</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>523</v>
+        <v>541</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>286</v>
+        <v>542</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>524</v>
+        <v>543</v>
       </c>
       <c r="M22" s="7">
         <v>139</v>
       </c>
       <c r="N22" s="7">
-        <v>97603</v>
+        <v>91198</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>525</v>
+        <v>488</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>526</v>
+        <v>544</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>527</v>
+        <v>545</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7810,46 +7885,46 @@
         <v>557</v>
       </c>
       <c r="D23" s="7">
-        <v>590194</v>
+        <v>588405</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>528</v>
+        <v>546</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>529</v>
+        <v>547</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>190</v>
+        <v>548</v>
       </c>
       <c r="H23" s="7">
         <v>863</v>
       </c>
       <c r="I23" s="7">
-        <v>744160</v>
+        <v>793941</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>530</v>
+        <v>549</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>531</v>
+        <v>550</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>293</v>
+        <v>551</v>
       </c>
       <c r="M23" s="7">
         <v>1420</v>
       </c>
       <c r="N23" s="7">
-        <v>1334354</v>
+        <v>1382346</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>532</v>
+        <v>496</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>533</v>
+        <v>552</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7861,7 +7936,7 @@
         <v>599</v>
       </c>
       <c r="D24" s="7">
-        <v>627754</v>
+        <v>624279</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -7876,7 +7951,7 @@
         <v>960</v>
       </c>
       <c r="I24" s="7">
-        <v>804203</v>
+        <v>849265</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -7891,7 +7966,7 @@
         <v>1559</v>
       </c>
       <c r="N24" s="7">
-        <v>1431957</v>
+        <v>1473544</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -7914,46 +7989,46 @@
         <v>33</v>
       </c>
       <c r="D25" s="7">
-        <v>29260</v>
+        <v>25120</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>284</v>
+        <v>356</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>535</v>
+        <v>554</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>536</v>
+        <v>107</v>
       </c>
       <c r="H25" s="7">
         <v>39</v>
       </c>
       <c r="I25" s="7">
-        <v>26115</v>
+        <v>22057</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>160</v>
+        <v>555</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>537</v>
+        <v>108</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>538</v>
+        <v>556</v>
       </c>
       <c r="M25" s="7">
         <v>72</v>
       </c>
       <c r="N25" s="7">
-        <v>55375</v>
+        <v>47177</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>539</v>
+        <v>445</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>276</v>
+        <v>557</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>540</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7965,46 +8040,46 @@
         <v>729</v>
       </c>
       <c r="D26" s="7">
-        <v>830168</v>
+        <v>903600</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>290</v>
+        <v>366</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>541</v>
+        <v>116</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>542</v>
+        <v>558</v>
       </c>
       <c r="H26" s="7">
         <v>1021</v>
       </c>
       <c r="I26" s="7">
-        <v>838916</v>
+        <v>692794</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>169</v>
+        <v>559</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>543</v>
+        <v>560</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>544</v>
+        <v>118</v>
       </c>
       <c r="M26" s="7">
         <v>1750</v>
       </c>
       <c r="N26" s="7">
-        <v>1669084</v>
+        <v>1596395</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>545</v>
+        <v>454</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>546</v>
+        <v>44</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>282</v>
+        <v>561</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8016,7 +8091,7 @@
         <v>762</v>
       </c>
       <c r="D27" s="7">
-        <v>859428</v>
+        <v>928720</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -8031,7 +8106,7 @@
         <v>1060</v>
       </c>
       <c r="I27" s="7">
-        <v>865031</v>
+        <v>714851</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -8046,7 +8121,7 @@
         <v>1822</v>
       </c>
       <c r="N27" s="7">
-        <v>1724459</v>
+        <v>1643572</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -8069,46 +8144,46 @@
         <v>293</v>
       </c>
       <c r="D28" s="7">
-        <v>217109</v>
+        <v>208125</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>547</v>
+        <v>562</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>548</v>
+        <v>563</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>211</v>
+        <v>564</v>
       </c>
       <c r="H28" s="7">
         <v>597</v>
       </c>
       <c r="I28" s="7">
-        <v>311693</v>
+        <v>286511</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>549</v>
+        <v>565</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>550</v>
+        <v>566</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>551</v>
+        <v>567</v>
       </c>
       <c r="M28" s="7">
         <v>890</v>
       </c>
       <c r="N28" s="7">
-        <v>528802</v>
+        <v>494636</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>476</v>
+        <v>568</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>552</v>
+        <v>569</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>553</v>
+        <v>570</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8120,46 +8195,46 @@
         <v>3082</v>
       </c>
       <c r="D29" s="7">
-        <v>3167049</v>
+        <v>3250695</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>554</v>
+        <v>571</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>219</v>
+        <v>572</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>555</v>
+        <v>573</v>
       </c>
       <c r="H29" s="7">
         <v>4763</v>
       </c>
       <c r="I29" s="7">
-        <v>3491525</v>
+        <v>3371522</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>556</v>
+        <v>574</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>557</v>
+        <v>575</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>558</v>
+        <v>576</v>
       </c>
       <c r="M29" s="7">
         <v>7845</v>
       </c>
       <c r="N29" s="7">
-        <v>6658573</v>
+        <v>6622217</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>483</v>
+        <v>577</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>559</v>
+        <v>578</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>560</v>
+        <v>579</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8171,7 +8246,7 @@
         <v>3375</v>
       </c>
       <c r="D30" s="7">
-        <v>3384158</v>
+        <v>3458820</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -8186,7 +8261,7 @@
         <v>5360</v>
       </c>
       <c r="I30" s="7">
-        <v>3803218</v>
+        <v>3658033</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -8201,7 +8276,7 @@
         <v>8735</v>
       </c>
       <c r="N30" s="7">
-        <v>7187375</v>
+        <v>7116853</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
